--- a/examples/Qwack - PFEExample.xlsx
+++ b/examples/Qwack - PFEExample.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\qwack\qwack-master\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\qwack\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5211785-A604-4DA7-9EFD-869D4C33AA42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE788823-DBC5-4317-A46A-A183A87F4AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21090" windowWidth="19200" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FundingFx" sheetId="2" r:id="rId1"/>
     <sheet name="EnergyCurves" sheetId="1" r:id="rId2"/>
     <sheet name="SwapPricer" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId4"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="CDate">'[1]i. Net Risk'!$C$6</definedName>
@@ -31,13 +30,43 @@
     <definedName name="ValDate">EnergyCurves!$B$1</definedName>
     <definedName name="ZARPublicHolidays">'[1]Other Curves'!$O$7:$O$1221</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,9 +219,6 @@
     <t>API4</t>
   </si>
   <si>
-    <t>[USD.LIBOR.3M]</t>
-  </si>
-  <si>
     <t>Notional</t>
   </si>
   <si>
@@ -255,12 +281,16 @@
   <si>
     <t>#N/A N/A</t>
   </si>
+  <si>
+    <t>USD.LIBOR.3M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="23">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -268,22 +298,21 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="&quot;R&quot;\ #,##0;[Red]&quot;R&quot;\ \-#,##0"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;R&quot;\ * #,##0.00_ ;_ &quot;R&quot;\ * \-#,##0.00_ ;_ &quot;R&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="dd\-mmm\-yy_)"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="176" formatCode="_ [$€]\ * #,##0.00_ ;_ [$€]\ * \-#,##0.00_ ;_ [$€]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;ZAR&quot;\ #,##0;[Red]&quot;ZAR&quot;\ \-#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="\+#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="0.00_)"/>
-    <numFmt numFmtId="182" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="&quot;R&quot;\ #,##0;[Red]&quot;R&quot;\ \-#,##0"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;R&quot;\ * #,##0.00_ ;_ &quot;R&quot;\ * \-#,##0.00_ ;_ &quot;R&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="dd\-mmm\-yy_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="175" formatCode="_ [$€]\ * #,##0.00_ ;_ [$€]\ * \-#,##0.00_ ;_ [$€]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;ZAR&quot;\ #,##0;[Red]&quot;ZAR&quot;\ \-#,##0"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="\+#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="0.00_)"/>
+    <numFmt numFmtId="181" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="94" x14ac:knownFonts="1">
     <font>
@@ -2120,39 +2149,39 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="14" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="14" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2295,7 +2324,7 @@
     <xf numFmtId="0" fontId="20" fillId="58" borderId="21" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="60" borderId="0"/>
+    <xf numFmtId="174" fontId="25" fillId="60" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="61" borderId="21" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
@@ -2332,15 +2361,19 @@
     <xf numFmtId="0" fontId="77" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="169" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2348,15 +2381,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3090,11 +3119,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="63" fillId="71" borderId="0">
+    <xf numFmtId="178" fontId="63" fillId="71" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="11"/>
-    <xf numFmtId="180" fontId="64" fillId="72" borderId="0">
+    <xf numFmtId="179" fontId="64" fillId="72" borderId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3107,9 +3136,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="84" fillId="0" borderId="11"/>
-    <xf numFmtId="172" fontId="84" fillId="0" borderId="11"/>
+    <xf numFmtId="171" fontId="84" fillId="0" borderId="11"/>
     <xf numFmtId="2" fontId="85" fillId="74" borderId="11"/>
-    <xf numFmtId="172" fontId="85" fillId="74" borderId="11"/>
+    <xf numFmtId="171" fontId="85" fillId="74" borderId="11"/>
     <xf numFmtId="2" fontId="18" fillId="75" borderId="20" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3126,14 +3155,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="86" fillId="77" borderId="11"/>
-    <xf numFmtId="172" fontId="86" fillId="77" borderId="11"/>
+    <xf numFmtId="171" fontId="86" fillId="77" borderId="11"/>
     <xf numFmtId="2" fontId="86" fillId="78" borderId="11"/>
-    <xf numFmtId="172" fontId="86" fillId="78" borderId="11"/>
+    <xf numFmtId="171" fontId="86" fillId="78" borderId="11"/>
     <xf numFmtId="2" fontId="85" fillId="52" borderId="11"/>
-    <xf numFmtId="172" fontId="85" fillId="52" borderId="11"/>
+    <xf numFmtId="171" fontId="85" fillId="52" borderId="11"/>
     <xf numFmtId="0" fontId="86" fillId="79" borderId="11"/>
     <xf numFmtId="2" fontId="86" fillId="80" borderId="11"/>
-    <xf numFmtId="172" fontId="86" fillId="80" borderId="11"/>
+    <xf numFmtId="171" fontId="86" fillId="80" borderId="11"/>
     <xf numFmtId="0" fontId="87" fillId="81" borderId="11"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3275,15 +3304,15 @@
     <xf numFmtId="0" fontId="13" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="13" fillId="83" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="83" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="84" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="84" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="84" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="0" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11150,8 +11179,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11174,7 +11203,7 @@
         <v>14.358599999999999</v>
       </c>
       <c r="C1" s="1">
-        <f>_xll.QDates_SpotDate(ValDate,"2b","JHB","NYC")</f>
+        <f ca="1">_xll.QDates_SpotDate(ValDate,"2b","JHB","NYC")</f>
         <v>43377</v>
       </c>
       <c r="M1" t="s">
@@ -11189,41 +11218,41 @@
         <v>137</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C13" si="0">$B$1+B2/10000</f>
+        <f t="shared" ref="C2:C13" ca="1" si="0">$B$1+B2/10000</f>
         <v>14.372299999999999</v>
       </c>
       <c r="D2" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A2,IF(RIGHT(A2,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A2,IF(RIGHT(A2,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43384</v>
       </c>
       <c r="E2" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A2,D2,"USD","ZAR",1,C2,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_1w¬8</v>
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A2,D2,"USD","ZAR",1,C2,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_1w¬12</v>
       </c>
       <c r="G2" t="str">
-        <f>_xll.QDates_FuturesGetFrontMonth(ValDate,"ED")</f>
-        <v>EDZ8</v>
+        <f ca="1">_xll.QDates_FuturesGetFrontMonth(ValDate,"ED")</f>
+        <v>EDZ18</v>
       </c>
       <c r="H2">
         <v>97.344999999999999</v>
       </c>
       <c r="I2" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G2,ValDate,G2,$B$21,H2,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ8¬8</v>
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G2,ValDate,G2,$B$21,H2,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ18¬13</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K2,IF(RIGHT(K2,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K2,IF(RIGHT(K2,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43382</v>
       </c>
       <c r="M2" s="9">
         <v>0.164075</v>
       </c>
       <c r="O2" t="str">
-        <f>_xll.QVol_CreateGridVolSurface("USD/ZAR","USD/ZAR",ValDate,0.5,L2:L14,M2:M14,"ForwardDelta","Linear","LinearInVariance","ACT365F",K2:K14)</f>
-        <v>USD/ZAR¬4</v>
+        <f ca="1">_xll.QVol_CreateGridVolSurface("USD/ZAR","USD/ZAR",ValDate,0.5,L2:L14,M2:M14,"ForwardDelta","Linear","LinearInVariance","ACT365F",K2:K14)</f>
+        <v>USD/ZAR¬11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11234,37 +11263,41 @@
         <v>271</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.3857</v>
       </c>
       <c r="D3" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A3,IF(RIGHT(A3,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A3,IF(RIGHT(A3,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43391</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A3,D3,"USD","ZAR",1,C3,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_2w¬8</v>
+      <c r="E3" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A3,D3,"USD","ZAR",1,C3,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_2w¬11</v>
       </c>
       <c r="G3" t="str">
-        <f>_xll.QDates_FuturesNextCode(G2)</f>
-        <v>EDH9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G2)</f>
+        <v>EDH19</v>
       </c>
       <c r="H3">
         <v>97.16</v>
       </c>
-      <c r="I3" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G3,ValDate,G3,$B$21,H3,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH9¬7</v>
+      <c r="I3" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G3,ValDate,G3,$B$21,H3,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH19¬11</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K3,IF(RIGHT(K3,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K3,IF(RIGHT(K3,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43389</v>
       </c>
       <c r="M3" s="9">
         <v>0.17015</v>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">_xll.QVol_CreateInvertedFxSurface("ZAR/USD",O2)</f>
+        <v>ZAR/USD¬1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11275,33 +11308,33 @@
         <v>611</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.419699999999999</v>
       </c>
       <c r="D4" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A4,IF(RIGHT(A4,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A4,IF(RIGHT(A4,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43409</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A4,D4,"USD","ZAR",1,C4,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_1m¬8</v>
+      <c r="E4" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A4,D4,"USD","ZAR",1,C4,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_1m¬11</v>
       </c>
       <c r="G4" t="str">
-        <f>_xll.QDates_FuturesNextCode(G3)</f>
-        <v>EDM9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G3)</f>
+        <v>EDM19</v>
       </c>
       <c r="H4">
         <v>97.01</v>
       </c>
-      <c r="I4" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G4,ValDate,G4,$B$21,H4,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDM9¬7</v>
+      <c r="I4" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G4,ValDate,G4,$B$21,H4,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDM19¬11</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K4,IF(RIGHT(K4,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K4,IF(RIGHT(K4,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43396</v>
       </c>
       <c r="M4" s="9">
@@ -11316,33 +11349,33 @@
         <v>1157</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.474299999999999</v>
       </c>
       <c r="D5" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A5,IF(RIGHT(A5,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A5,IF(RIGHT(A5,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43438</v>
       </c>
-      <c r="E5" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A5,D5,"USD","ZAR",1,C5,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_2m¬8</v>
+      <c r="E5" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A5,D5,"USD","ZAR",1,C5,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_2m¬11</v>
       </c>
       <c r="G5" t="str">
-        <f>_xll.QDates_FuturesNextCode(G4)</f>
-        <v>EDU9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G4)</f>
+        <v>EDU19</v>
       </c>
       <c r="H5">
         <v>96.924999999999997</v>
       </c>
-      <c r="I5" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G5,ValDate,G5,$B$21,H5,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDU9¬7</v>
+      <c r="I5" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G5,ValDate,G5,$B$21,H5,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDU19¬11</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K5,IF(RIGHT(K5,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K5,IF(RIGHT(K5,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43406</v>
       </c>
       <c r="M5" s="9">
@@ -11357,33 +11390,33 @@
         <v>1754</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.533999999999999</v>
       </c>
       <c r="D6" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A6,IF(RIGHT(A6,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A6,IF(RIGHT(A6,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43469</v>
       </c>
-      <c r="E6" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A6,D6,"USD","ZAR",1,C6,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_3m¬7</v>
+      <c r="E6" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A6,D6,"USD","ZAR",1,C6,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_3m¬11</v>
       </c>
       <c r="G6" t="str">
-        <f>_xll.QDates_FuturesNextCode(G5)</f>
-        <v>EDZ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G5)</f>
+        <v>EDZ19</v>
       </c>
       <c r="H6">
         <v>96.865000000000009</v>
       </c>
-      <c r="I6" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G6,ValDate,G6,$B$21,H6,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ9¬7</v>
+      <c r="I6" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G6,ValDate,G6,$B$21,H6,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ19¬11</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K6,IF(RIGHT(K6,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K6,IF(RIGHT(K6,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43437</v>
       </c>
       <c r="M6" s="9">
@@ -11398,33 +11431,33 @@
         <v>3454</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.703999999999999</v>
       </c>
       <c r="D7" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A7,IF(RIGHT(A7,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A7,IF(RIGHT(A7,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43559</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A7,D7,"USD","ZAR",1,C7,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_6m¬8</v>
+      <c r="E7" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A7,D7,"USD","ZAR",1,C7,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_6m¬11</v>
       </c>
       <c r="G7" t="str">
-        <f>_xll.QDates_FuturesNextCode(G6)</f>
-        <v>EDH0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G6)</f>
+        <v>EDH20</v>
       </c>
       <c r="H7">
         <v>96.84</v>
       </c>
-      <c r="I7" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G7,ValDate,G7,$B$21,H7,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH0¬7</v>
+      <c r="I7" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G7,ValDate,G7,$B$21,H7,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH20¬11</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K7,IF(RIGHT(K7,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K7,IF(RIGHT(K7,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43467</v>
       </c>
       <c r="M7" s="9">
@@ -11439,33 +11472,33 @@
         <v>5189</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.8775</v>
       </c>
       <c r="D8" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A8,IF(RIGHT(A8,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A8,IF(RIGHT(A8,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43651</v>
       </c>
-      <c r="E8" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A8,D8,"USD","ZAR",1,C8,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_9m¬8</v>
+      <c r="E8" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A8,D8,"USD","ZAR",1,C8,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_9m¬11</v>
       </c>
       <c r="G8" t="str">
-        <f>_xll.QDates_FuturesNextCode(G7)</f>
-        <v>EDM0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G7)</f>
+        <v>EDM20</v>
       </c>
       <c r="H8">
         <v>96.835000000000008</v>
       </c>
-      <c r="I8" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G8,ValDate,G8,$B$21,H8,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDM0¬6</v>
+      <c r="I8" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G8,ValDate,G8,$B$21,H8,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDM20¬11</v>
       </c>
       <c r="K8" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K8,IF(RIGHT(K8,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K8,IF(RIGHT(K8,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43557</v>
       </c>
       <c r="M8" s="9">
@@ -11480,33 +11513,33 @@
         <v>6917</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.0503</v>
       </c>
       <c r="D9" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A9,IF(RIGHT(A9,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A9,IF(RIGHT(A9,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43742</v>
       </c>
-      <c r="E9" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A9,D9,"USD","ZAR",1,C9,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_12m¬8</v>
+      <c r="E9" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A9,D9,"USD","ZAR",1,C9,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_12m¬11</v>
       </c>
       <c r="G9" t="str">
-        <f>_xll.QDates_FuturesNextCode(G8)</f>
-        <v>EDU0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G8)</f>
+        <v>EDU20</v>
       </c>
       <c r="H9">
         <v>96.84</v>
       </c>
-      <c r="I9" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G9,ValDate,G9,$B$21,H9,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDU0¬6</v>
+      <c r="I9" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G9,ValDate,G9,$B$21,H9,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDU20¬11</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K9,IF(RIGHT(K9,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K9,IF(RIGHT(K9,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43648</v>
       </c>
       <c r="M9" s="9">
@@ -11521,33 +11554,33 @@
         <v>10771</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.435699999999999</v>
       </c>
       <c r="D10" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A10,IF(RIGHT(A10,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A10,IF(RIGHT(A10,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43927</v>
       </c>
-      <c r="E10" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A10,D10,"USD","ZAR",1,C10,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_18m¬8</v>
+      <c r="E10" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A10,D10,"USD","ZAR",1,C10,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_18m¬11</v>
       </c>
       <c r="G10" t="str">
-        <f>_xll.QDates_FuturesNextCode(G9)</f>
-        <v>EDZ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G9)</f>
+        <v>EDZ20</v>
       </c>
       <c r="H10">
         <v>96.835000000000008</v>
       </c>
-      <c r="I10" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G10,ValDate,G10,$B$21,H10,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ0¬6</v>
+      <c r="I10" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G10,ValDate,G10,$B$21,H10,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ20¬11</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K10,IF(RIGHT(K10,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K10,IF(RIGHT(K10,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43740</v>
       </c>
       <c r="M10" s="9">
@@ -11562,33 +11595,33 @@
         <v>14580</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.816599999999999</v>
       </c>
       <c r="D11" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A11,IF(RIGHT(A11,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A11,IF(RIGHT(A11,1)="w","F","MF"),"NYC+JHB")</f>
         <v>44109</v>
       </c>
-      <c r="E11" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A11,D11,"USD","ZAR",1,C11,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_2y¬8</v>
+      <c r="E11" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A11,D11,"USD","ZAR",1,C11,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_2y¬11</v>
       </c>
       <c r="G11" t="str">
-        <f>_xll.QDates_FuturesNextCode(G10)</f>
-        <v>EDH1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G10)</f>
+        <v>EDH21</v>
       </c>
       <c r="H11">
         <v>96.855000000000004</v>
       </c>
-      <c r="I11" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G11,ValDate,G11,$B$21,H11,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH1¬5</v>
+      <c r="I11" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G11,ValDate,G11,$B$21,H11,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH21¬11</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K11,IF(RIGHT(K11,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K11,IF(RIGHT(K11,1)="w","F","MF"),"NYC+JHB")</f>
         <v>43923</v>
       </c>
       <c r="M11" s="9">
@@ -11603,33 +11636,33 @@
         <v>23266</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>16.685199999999998</v>
       </c>
       <c r="D12" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A12,IF(RIGHT(A12,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A12,IF(RIGHT(A12,1)="w","F","MF"),"NYC+JHB")</f>
         <v>44473</v>
       </c>
-      <c r="E12" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A12,D12,"USD","ZAR",1,C12,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_3y¬8</v>
+      <c r="E12" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A12,D12,"USD","ZAR",1,C12,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_3y¬11</v>
       </c>
       <c r="G12" t="str">
-        <f>_xll.QDates_FuturesNextCode(G11)</f>
-        <v>EDM1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G11)</f>
+        <v>EDM21</v>
       </c>
       <c r="H12">
         <v>96.87</v>
       </c>
-      <c r="I12" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G12,ValDate,G12,$B$21,H12,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDM1¬5</v>
+      <c r="I12" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G12,ValDate,G12,$B$21,H12,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDM21¬11</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K12,IF(RIGHT(K12,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K12,IF(RIGHT(K12,1)="w","F","MF"),"NYC+JHB")</f>
         <v>44106</v>
       </c>
       <c r="M12" s="9">
@@ -11644,33 +11677,33 @@
         <v>43675</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>18.726099999999999</v>
       </c>
       <c r="D13" s="1">
-        <f>_xll.QDates_AddPeriod($C$1,A13,IF(RIGHT(A13,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod($C$1,A13,IF(RIGHT(A13,1)="w","F","MF"),"NYC+JHB")</f>
         <v>45203</v>
       </c>
-      <c r="E13" t="str">
-        <f>_xll.QIns_CreateFxForward("USDZAR_"&amp;A13,D13,"USD","ZAR",1,C13,"[USD.LIBOR.3M]","ZAR.DISC.[USD.LIBOR.3M]")</f>
-        <v>USDZAR_5y¬8</v>
+      <c r="E13" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateFxForward("USDZAR_"&amp;A13,D13,"USD","ZAR",1,C13,"USD.LIBOR.3M","ZAR.DISC.[USD.LIBOR.3M]")</f>
+        <v>USDZAR_5y¬11</v>
       </c>
       <c r="G13" t="str">
-        <f>_xll.QDates_FuturesNextCode(G12)</f>
-        <v>EDU1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G12)</f>
+        <v>EDU21</v>
       </c>
       <c r="H13">
         <v>96.88</v>
       </c>
-      <c r="I13" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G13,ValDate,G13,$B$21,H13,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDU1¬4</v>
+      <c r="I13" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G13,ValDate,G13,$B$21,H13,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDU21¬11</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K13,IF(RIGHT(K13,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K13,IF(RIGHT(K13,1)="w","F","MF"),"NYC+JHB")</f>
         <v>44473</v>
       </c>
       <c r="M13" s="9">
@@ -11679,21 +11712,21 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="str">
-        <f>_xll.QDates_FuturesNextCode(G13)</f>
-        <v>EDZ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G13)</f>
+        <v>EDZ21</v>
       </c>
       <c r="H14">
         <v>96.875</v>
       </c>
-      <c r="I14" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G14,ValDate,G14,$B$21,H14,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ1¬4</v>
+      <c r="I14" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G14,ValDate,G14,$B$21,H14,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ21¬11</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="1">
-        <f>_xll.QDates_AddPeriod(ValDate,K14,IF(RIGHT(K14,1)="w","F","MF"),"NYC+JHB")</f>
+        <f ca="1">_xll.QDates_AddPeriod(ValDate,K14,IF(RIGHT(K14,1)="w","F","MF"),"NYC+JHB")</f>
         <v>45201</v>
       </c>
       <c r="M14" s="9">
@@ -11705,43 +11738,43 @@
         <v>16</v>
       </c>
       <c r="B15" t="str">
-        <f>_xll.QIns_CreateFxPair("USDZAR","USD","ZAR","NYC+JHB","2b")</f>
-        <v>USDZAR¬8</v>
+        <f ca="1">_xll.QIns_CreateFxPair("USDZAR","USD","ZAR","NYC+JHB","2b")</f>
+        <v>USDZAR¬15</v>
       </c>
       <c r="G15" t="str">
-        <f>_xll.QDates_FuturesNextCode(G14)</f>
-        <v>EDH2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G14)</f>
+        <v>EDH22</v>
       </c>
       <c r="H15">
         <v>96.885000000000005</v>
       </c>
-      <c r="I15" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G15,ValDate,G15,$B$21,H15,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH2¬4</v>
+      <c r="I15" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G15,ValDate,G15,$B$21,H15,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH22¬11</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f>_xll.QIns_CreateFxPair("ZARUSD","ZAR","USD","NYC+JHB","2b")</f>
-        <v>ZARUSD¬8</v>
+        <f ca="1">_xll.QIns_CreateFxPair("ZARUSD","ZAR","USD","NYC+JHB","2b")</f>
+        <v>ZARUSD¬11</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <f>B1</f>
+        <f ca="1">B1</f>
         <v>14.358599999999999</v>
       </c>
       <c r="G16" t="str">
-        <f>_xll.QDates_FuturesNextCode(G15)</f>
-        <v>EDM2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G15)</f>
+        <v>EDM22</v>
       </c>
       <c r="H16">
         <v>96.885000000000005</v>
       </c>
-      <c r="I16" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G16,ValDate,G16,$B$21,H16,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDM2¬4</v>
+      <c r="I16" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G16,ValDate,G16,$B$21,H16,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDM22¬11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -11749,19 +11782,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="str">
-        <f>_xll.QIns_CreateFxMatrix(A17,"USD",ValDate,D16:E16,B15:B16,D18:E19)</f>
-        <v>FxMarix¬8</v>
+        <f ca="1">_xll.QIns_CreateFxMatrix(A17,"USD",ValDate,D16:E16,B15:B16,D18:E19)</f>
+        <v>FxMarix¬11</v>
       </c>
       <c r="G17" t="str">
-        <f>_xll.QDates_FuturesNextCode(G16)</f>
-        <v>EDU2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G16)</f>
+        <v>EDU22</v>
       </c>
       <c r="H17">
         <v>96.88</v>
       </c>
-      <c r="I17" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G17,ValDate,G17,$B$21,H17,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDU2¬4</v>
+      <c r="I17" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G17,ValDate,G17,$B$21,H17,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDU22¬11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -11772,15 +11805,15 @@
         <v>21</v>
       </c>
       <c r="G18" t="str">
-        <f>_xll.QDates_FuturesNextCode(G17)</f>
-        <v>EDZ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G17)</f>
+        <v>EDZ22</v>
       </c>
       <c r="H18">
         <v>96.87</v>
       </c>
-      <c r="I18" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G18,ValDate,G18,$B$21,H18,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ2¬4</v>
+      <c r="I18" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G18,ValDate,G18,$B$21,H18,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ22¬11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -11788,31 +11821,31 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G19" t="str">
-        <f>_xll.QDates_FuturesNextCode(G18)</f>
-        <v>EDH3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G18)</f>
+        <v>EDH23</v>
       </c>
       <c r="H19">
         <v>96.865000000000009</v>
       </c>
-      <c r="I19" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G19,ValDate,G19,$B$21,H19,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH3¬4</v>
+      <c r="I19" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G19,ValDate,G19,$B$21,H19,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH23¬11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" t="str">
-        <f>_xll.QDates_FuturesNextCode(G19)</f>
-        <v>EDM3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G19)</f>
+        <v>EDM23</v>
       </c>
       <c r="H20">
         <v>96.855000000000004</v>
       </c>
-      <c r="I20" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G20,ValDate,G20,$B$21,H20,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDM3¬4</v>
+      <c r="I20" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G20,ValDate,G20,$B$21,H20,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDM23¬11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -11820,32 +11853,32 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3m","ACT360","ACT360","3m","NYC+LON","2b","MF")</f>
-        <v>USD.LIBOR.3M¬8</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3m","ACT360","ACT360","3m","NYC+LON","2b","MF")</f>
+        <v>USD.LIBOR.3M¬15</v>
       </c>
       <c r="G21" t="str">
-        <f>_xll.QDates_FuturesNextCode(G20)</f>
-        <v>EDU3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G20)</f>
+        <v>EDU23</v>
       </c>
       <c r="H21">
         <v>96.84</v>
       </c>
-      <c r="I21" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G21,ValDate,G21,$B$21,H21,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDU3¬4</v>
+      <c r="I21" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G21,ValDate,G21,$B$21,H21,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDU23¬11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22" t="str">
-        <f>_xll.QDates_FuturesNextCode(G21)</f>
-        <v>EDZ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G21)</f>
+        <v>EDZ23</v>
       </c>
       <c r="H22">
         <v>96.814999999999998</v>
       </c>
-      <c r="I22" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G22,ValDate,G22,$B$21,H22,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDZ3¬4</v>
+      <c r="I22" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G22,ValDate,G22,$B$21,H22,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDZ23¬11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -11853,19 +11886,19 @@
         <v>25</v>
       </c>
       <c r="B23" t="str">
-        <f>_xll.QIns_CreateFundingInstrumentCollection(A23,E2:E13)</f>
-        <v>FICA¬6</v>
+        <f ca="1">_xll.QIns_CreateFundingInstrumentCollection(A23,E2:E13)</f>
+        <v>FICA¬11</v>
       </c>
       <c r="G23" t="str">
-        <f>_xll.QDates_FuturesNextCode(G22)</f>
-        <v>EDH4</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(G22)</f>
+        <v>EDH24</v>
       </c>
       <c r="H23">
         <v>96.8</v>
       </c>
-      <c r="I23" t="str">
-        <f>_xll.QIns_CreateSTIRFromCode(G23,ValDate,G23,$B$21,H23,1,0,"[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
-        <v>EDH4¬4</v>
+      <c r="I23" s="30" t="str">
+        <f ca="1">_xll.QIns_CreateSTIRFromCode(G23,ValDate,G23,$B$21,H23,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
+        <v>EDH24¬11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -11873,8 +11906,8 @@
         <v>26</v>
       </c>
       <c r="B24" t="str">
-        <f>_xll.QIns_CreateFundingInstrumentCollection(A24,I2:I23)</f>
-        <v>FICB¬4</v>
+        <f ca="1">_xll.QIns_CreateFundingInstrumentCollection(A24,I2:I23)</f>
+        <v>FICB¬11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -11882,8 +11915,8 @@
         <v>27</v>
       </c>
       <c r="B25" t="str">
-        <f>_xll.QIns_CreateFundingInstrumentCollection(A25,B23:B24)</f>
-        <v>FIC_Combined¬4</v>
+        <f ca="1">_xll.QIns_CreateFundingInstrumentCollection(A25,B23:B24)</f>
+        <v>FIC_Combined¬11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -11891,8 +11924,8 @@
         <v>22</v>
       </c>
       <c r="B26" t="str">
-        <f>_xll.QCurves_CreateFundingModel(A26,ValDate,B25,,B17,O2)</f>
-        <v>FundingModel¬4</v>
+        <f ca="1">_xll.QCurves_CreateFundingModel(A26,ValDate,B25,,B17,O2:O3)</f>
+        <v>FundingModel¬5</v>
       </c>
     </row>
   </sheetData>
@@ -11946,12 +11979,12 @@
       <c r="Q1" s="25"/>
       <c r="T1" s="25"/>
       <c r="V1" t="str">
-        <f>_xll.QVol_CreateGridVolSurface(V4,V4,ValDate,0.5,$T$6:$T$45,V6:V45,"ForwardDelta","Linear","LinearInVariance","ACT365F",$U$6:$U$45)</f>
-        <v>ICEBrent¬3</v>
+        <f ca="1">_xll.QVol_CreateGridVolSurface(V4,V4,ValDate,0.5,$T$6:$T$45,V6:V45,"ForwardDelta","Linear","LinearInVariance","ACT365F",$U$6:$U$45)</f>
+        <v>ICEBrent¬5</v>
       </c>
       <c r="W1" t="str">
-        <f>_xll.QVol_CreateGridVolSurface(Y4,Y4,ValDate,0.5,$W$6:$W$28,Y6:Y28,"ForwardDelta","Linear","LinearInVariance","ACT365F",$X$6:$X$28)</f>
-        <v>ICEGasoil¬3</v>
+        <f ca="1">_xll.QVol_CreateGridVolSurface(Y4,Y4,ValDate,0.5,$W$6:$W$28,Y6:Y28,"ForwardDelta","Linear","LinearInVariance","ACT365F",$X$6:$X$28)</f>
+        <v>ICEGasoil¬5</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="1"/>
@@ -11966,12 +11999,12 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="P2" s="3" t="str">
-        <f>_xll.QCurves_CreatePriceCurve(A3,A3,ValDate,$B$4:$B$65,$H$4:$H$65,"ICE",$A4:A$65,"USD","LIBOR.3M","0b","NYC")</f>
-        <v>ICEBrent¬3</v>
+        <f ca="1">_xll.QCurves_CreatePriceCurve(A3,A3,ValDate,$B$4:$B$65,$H$4:$H$65,"ICE",$A4:A$65,"USD","LIBOR.3M","0b","NYC")</f>
+        <v>ICEBrent¬5</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f>_xll.QCurves_CreatePriceCurve(J3,J3,ValDate,$K$4:$K$65,$Q$4:$Q$65,"ICE",J4:J65,"USD","LIBOR.3M","0b","NYC")</f>
-        <v>ICEGasoil¬3</v>
+        <f ca="1">_xll.QCurves_CreatePriceCurve(J3,J3,ValDate,$K$4:$K$65,$Q$4:$Q$65,"ICE",J4:J65,"USD","LIBOR.3M","0b","NYC")</f>
+        <v>ICEGasoil¬5</v>
       </c>
       <c r="T2" s="3"/>
       <c r="V2" s="39" t="s">
@@ -12051,11 +12084,11 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="str">
-        <f>_xll.QDates_FuturesGetFrontMonth(ValDate,"CO")</f>
-        <v>COZ8</v>
+        <f ca="1">_xll.QDates_FuturesGetFrontMonth(ValDate,"CO")</f>
+        <v>COZ18</v>
       </c>
       <c r="B4" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A4)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A4)</f>
         <v>43404</v>
       </c>
       <c r="C4">
@@ -12065,28 +12098,28 @@
         <v>84.795000000000002</v>
       </c>
       <c r="E4" s="21">
-        <f>$C$4-C4</f>
+        <f ca="1">$C$4-C4</f>
         <v>0</v>
       </c>
       <c r="F4" s="21">
-        <f>IF(ISNUMBER(D4),$D$4-D4,"")</f>
+        <f ca="1">IF(ISNUMBER(D4),$D$4-D4,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="21">
-        <f t="array" ref="G4:G65">_xll.QCurves_BendCurve(E4:E65,F4:F65)</f>
+        <f t="array" aca="1" ref="G4:G65" ca="1">_xll.QCurves_BendCurve(E4:E65,F4:F65)</f>
         <v>0</v>
       </c>
       <c r="H4" s="24">
-        <f>$D$4-G4</f>
+        <f ca="1">$D$4-G4</f>
         <v>84.795000000000002</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="str">
-        <f>_xll.QDates_FuturesGetFrontMonth(ValDate,"QS")</f>
-        <v>QSV8</v>
+        <f ca="1">_xll.QDates_FuturesGetFrontMonth(ValDate,"QS")</f>
+        <v>QSV18</v>
       </c>
       <c r="K4" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J4)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J4)</f>
         <v>43384</v>
       </c>
       <c r="L4">
@@ -12096,19 +12129,19 @@
         <v>737.375</v>
       </c>
       <c r="N4" s="21">
-        <f>$L$4-L4</f>
+        <f ca="1">$L$4-L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="21">
-        <f>IF(ISNUMBER(M4),$M$4-M4,"")</f>
+        <f ca="1">IF(ISNUMBER(M4),$M$4-M4,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f t="array" ref="P4:P65">_xll.QCurves_BendCurve(N4:N65,O4:O65)</f>
+        <f t="array" aca="1" ref="P4:P65" ca="1">_xll.QCurves_BendCurve(N4:N65,O4:O65)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="24">
-        <f>$M$4-P4</f>
+        <f ca="1">$M$4-P4</f>
         <v>737.375</v>
       </c>
       <c r="R4" s="24"/>
@@ -12132,11 +12165,11 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A4)</f>
-        <v>COF9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A4)</f>
+        <v>COF19</v>
       </c>
       <c r="B5" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A5)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A5)</f>
         <v>43434</v>
       </c>
       <c r="C5">
@@ -12146,27 +12179,28 @@
         <v>84.325000000000003</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:E53" si="0">$C$4-C5</f>
+        <f t="shared" ref="E5:E53" ca="1" si="0">$C$4-C5</f>
         <v>0.46999999999999886</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" ref="F5:F53" si="1">IF(ISNUMBER(D5),$D$4-D5,"")</f>
+        <f t="shared" ref="F5:F53" ca="1" si="1">IF(ISNUMBER(D5),$D$4-D5,"")</f>
         <v>0.46999999999999886</v>
       </c>
       <c r="G5" s="23">
+        <f ca="1"/>
         <v>0.46999999999999886</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" ref="H5:H65" si="2">$D$4-G5</f>
+        <f t="shared" ref="H5:H65" ca="1" si="2">$D$4-G5</f>
         <v>84.325000000000003</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J4)</f>
-        <v>QSX8</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J4)</f>
+        <v>QSX18</v>
       </c>
       <c r="K5" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J5)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J5)</f>
         <v>43416</v>
       </c>
       <c r="L5">
@@ -12176,18 +12210,19 @@
         <v>738.875</v>
       </c>
       <c r="N5" s="21">
-        <f t="shared" ref="N5:N65" si="3">$L$4-L5</f>
+        <f t="shared" ref="N5:N65" ca="1" si="3">$L$4-L5</f>
         <v>-0.5</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" ref="O5:O65" si="4">IF(ISNUMBER(M5),$M$4-M5,"")</f>
+        <f t="shared" ref="O5:O65" ca="1" si="4">IF(ISNUMBER(M5),$M$4-M5,"")</f>
         <v>-1.5</v>
       </c>
       <c r="P5" s="23">
+        <f ca="1"/>
         <v>-1.5</v>
       </c>
       <c r="Q5" s="24">
-        <f t="shared" ref="Q5:Q65" si="5">$M$4-P5</f>
+        <f t="shared" ref="Q5:Q65" ca="1" si="5">$M$4-P5</f>
         <v>738.875</v>
       </c>
       <c r="R5" s="24"/>
@@ -12212,11 +12247,11 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A5)</f>
-        <v>COG9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A5)</f>
+        <v>COG19</v>
       </c>
       <c r="B6" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A6)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A6)</f>
         <v>43465</v>
       </c>
       <c r="C6">
@@ -12226,27 +12261,28 @@
         <v>83.945000000000007</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.85999999999999943</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.84999999999999432</v>
       </c>
       <c r="G6" s="23">
+        <f ca="1"/>
         <v>0.84999999999999432</v>
       </c>
       <c r="H6" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>83.945000000000007</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J5)</f>
-        <v>QSZ8</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J5)</f>
+        <v>QSZ18</v>
       </c>
       <c r="K6" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J6)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J6)</f>
         <v>43446</v>
       </c>
       <c r="L6">
@@ -12256,39 +12292,40 @@
         <v>736.375</v>
       </c>
       <c r="N6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.25</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="P6" s="23">
+        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="Q6" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>736.375</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="26"/>
       <c r="T6" s="1">
-        <f>B4</f>
+        <f t="shared" ref="T6:T45" ca="1" si="6">B4</f>
         <v>43404</v>
       </c>
       <c r="U6" t="str">
-        <f>UPPER(TEXT(T6,"MMMYY"))</f>
+        <f ca="1">UPPER(TEXT(T6,"MMMYY"))</f>
         <v>OCT18</v>
       </c>
       <c r="V6" s="9">
         <v>0.27391562685677934</v>
       </c>
       <c r="W6" s="27">
-        <f>K4</f>
+        <f t="shared" ref="W6:W28" ca="1" si="7">K4</f>
         <v>43384</v>
       </c>
       <c r="X6" t="str">
-        <f>UPPER(TEXT(W6,"MMMYY"))</f>
+        <f ca="1">UPPER(TEXT(W6,"MMMYY"))</f>
         <v>OCT18</v>
       </c>
       <c r="Y6" s="9">
@@ -12301,11 +12338,11 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A6)</f>
-        <v>COH9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A6)</f>
+        <v>COH19</v>
       </c>
       <c r="B7" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A7)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A7)</f>
         <v>43496</v>
       </c>
       <c r="C7">
@@ -12315,27 +12352,28 @@
         <v>83.65</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.1800000000000068</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.144999999999996</v>
       </c>
       <c r="G7" s="23">
+        <f ca="1"/>
         <v>1.144999999999996</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>83.65</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J6)</f>
-        <v>QSF9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J6)</f>
+        <v>QSF19</v>
       </c>
       <c r="K7" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J7)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J7)</f>
         <v>43475</v>
       </c>
       <c r="L7">
@@ -12345,39 +12383,40 @@
         <v>735.125</v>
       </c>
       <c r="N7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.75</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2.25</v>
       </c>
       <c r="P7" s="23">
+        <f ca="1"/>
         <v>2.25</v>
       </c>
       <c r="Q7" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>735.125</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="26"/>
       <c r="T7" s="1">
-        <f>B5</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43434</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U7:U45" si="6">UPPER(TEXT(T7,"MMMYY"))</f>
+        <f t="shared" ref="U7:U45" ca="1" si="8">UPPER(TEXT(T7,"MMMYY"))</f>
         <v>NOV18</v>
       </c>
       <c r="V7" s="9">
         <v>0.2595227061877266</v>
       </c>
       <c r="W7" s="27">
-        <f>K5</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43416</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" ref="X7:X28" si="7">UPPER(TEXT(W7,"MMMYY"))</f>
+        <f t="shared" ref="X7:X28" ca="1" si="9">UPPER(TEXT(W7,"MMMYY"))</f>
         <v>NOV18</v>
       </c>
       <c r="Y7" s="9">
@@ -12388,8 +12427,8 @@
         <v>24</v>
       </c>
       <c r="AB7" t="str">
-        <f>_xll.QCurves_CreateAssetFxModel(AA7,ValDate,P2:S2,V1:Y1,FundingFx!B26,,AB15)</f>
-        <v>Model¬6</v>
+        <f ca="1">_xll.QCurves_CreateAssetFxModel(AA7,ValDate,P2:S2,V1:Y1,FundingFx!B26,,AB15)</f>
+        <v>Model¬1</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="12"/>
@@ -12397,11 +12436,11 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A7)</f>
-        <v>COJ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A7)</f>
+        <v>COJ19</v>
       </c>
       <c r="B8" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A8)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A8)</f>
         <v>43524</v>
       </c>
       <c r="C8">
@@ -12411,27 +12450,28 @@
         <v>83.34</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.5100000000000051</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.4549999999999983</v>
       </c>
       <c r="G8" s="23">
+        <f ca="1"/>
         <v>1.4549999999999983</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>83.34</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J7)</f>
-        <v>QSG9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J7)</f>
+        <v>QSG19</v>
       </c>
       <c r="K8" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J8)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J8)</f>
         <v>43508</v>
       </c>
       <c r="L8">
@@ -12441,39 +12481,40 @@
         <v>734.25</v>
       </c>
       <c r="N8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.25</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3.125</v>
       </c>
       <c r="P8" s="23">
+        <f ca="1"/>
         <v>3.125</v>
       </c>
       <c r="Q8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>734.25</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="26"/>
       <c r="T8" s="1">
-        <f>B6</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43465</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DEC18</v>
       </c>
       <c r="V8" s="9">
         <v>0.25651992031901455</v>
       </c>
       <c r="W8" s="27">
-        <f>K6</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43446</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>DEC18</v>
       </c>
       <c r="Y8" s="9">
@@ -12485,11 +12526,11 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A8)</f>
-        <v>COK9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A8)</f>
+        <v>COK19</v>
       </c>
       <c r="B9" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A9)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A9)</f>
         <v>43553</v>
       </c>
       <c r="C9">
@@ -12499,27 +12540,28 @@
         <v>83.02</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8500000000000085</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.7750000000000057</v>
       </c>
       <c r="G9" s="23">
+        <f ca="1"/>
         <v>1.7750000000000057</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>83.02</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J8)</f>
-        <v>QSH9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J8)</f>
+        <v>QSH19</v>
       </c>
       <c r="K9" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J9)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J9)</f>
         <v>43536</v>
       </c>
       <c r="L9">
@@ -12529,39 +12571,40 @@
         <v>732.625</v>
       </c>
       <c r="N9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6.75</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4.75</v>
       </c>
       <c r="P9" s="23">
+        <f ca="1"/>
         <v>4.75</v>
       </c>
       <c r="Q9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>732.625</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="26"/>
       <c r="T9" s="1">
-        <f>B7</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43496</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JAN19</v>
       </c>
       <c r="V9" s="9">
         <v>0.25002409058853575</v>
       </c>
       <c r="W9" s="27">
-        <f>K7</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43475</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JAN19</v>
       </c>
       <c r="Y9" s="9">
@@ -12574,16 +12617,16 @@
         <v>18</v>
       </c>
       <c r="AN9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A9)</f>
-        <v>COM9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A9)</f>
+        <v>COM19</v>
       </c>
       <c r="B10" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A10)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A10)</f>
         <v>43585</v>
       </c>
       <c r="C10">
@@ -12593,27 +12636,28 @@
         <v>82.64</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.2400000000000091</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.1550000000000011</v>
       </c>
       <c r="G10" s="23">
+        <f ca="1"/>
         <v>2.1550000000000011</v>
       </c>
       <c r="H10" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>82.64</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J9)</f>
-        <v>QSJ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J9)</f>
+        <v>QSJ19</v>
       </c>
       <c r="K10" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J10)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J10)</f>
         <v>43566</v>
       </c>
       <c r="L10">
@@ -12623,39 +12667,40 @@
         <v>730.375</v>
       </c>
       <c r="N10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
       <c r="P10" s="23">
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="Q10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>730.375</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="26"/>
       <c r="T10" s="1">
-        <f>B8</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43524</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>FEB19</v>
       </c>
       <c r="V10" s="9">
         <v>0.24471535158173721</v>
       </c>
       <c r="W10" s="27">
-        <f>K8</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43508</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>FEB19</v>
       </c>
       <c r="Y10" s="9">
@@ -12668,16 +12713,16 @@
         <v>19</v>
       </c>
       <c r="AN10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A10)</f>
-        <v>CON9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A10)</f>
+        <v>CON19</v>
       </c>
       <c r="B11" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A11)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A11)</f>
         <v>43616</v>
       </c>
       <c r="C11">
@@ -12687,27 +12732,28 @@
         <v>82.27</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6299999999999955</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5250000000000057</v>
       </c>
       <c r="G11" s="23">
+        <f ca="1"/>
         <v>2.5250000000000057</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>82.27</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J10)</f>
-        <v>QSK9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J10)</f>
+        <v>QSK19</v>
       </c>
       <c r="K11" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J11)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J11)</f>
         <v>43595</v>
       </c>
       <c r="L11">
@@ -12717,39 +12763,40 @@
         <v>728.5</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8.875</v>
       </c>
       <c r="P11" s="23">
+        <f ca="1"/>
         <v>8.875</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>728.5</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="26"/>
       <c r="T11" s="1">
-        <f>B9</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43553</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAR19</v>
       </c>
       <c r="V11" s="9">
         <v>0.24625856139086108</v>
       </c>
       <c r="W11" s="27">
-        <f>K9</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43536</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>MAR19</v>
       </c>
       <c r="Y11" s="9">
@@ -12761,11 +12808,11 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A11)</f>
-        <v>COQ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A11)</f>
+        <v>COQ19</v>
       </c>
       <c r="B12" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A12)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A12)</f>
         <v>43644</v>
       </c>
       <c r="C12">
@@ -12775,27 +12822,28 @@
         <v>81.87</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.0400000000000063</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.9249999999999972</v>
       </c>
       <c r="G12" s="23">
+        <f ca="1"/>
         <v>2.9249999999999972</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.87</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J11)</f>
-        <v>QSM9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J11)</f>
+        <v>QSM19</v>
       </c>
       <c r="K12" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J12)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J12)</f>
         <v>43628</v>
       </c>
       <c r="L12">
@@ -12805,39 +12853,40 @@
         <v>727.25</v>
       </c>
       <c r="N12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>12.25</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>10.125</v>
       </c>
       <c r="P12" s="23">
+        <f ca="1"/>
         <v>10.125</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>727.25</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="26"/>
       <c r="T12" s="1">
-        <f>B10</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43585</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>APR19</v>
       </c>
       <c r="V12" s="9">
         <v>0.24239558924988763</v>
       </c>
       <c r="W12" s="27">
-        <f>K10</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43566</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>APR19</v>
       </c>
       <c r="Y12" s="9">
@@ -12856,11 +12905,11 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A12)</f>
-        <v>COU9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A12)</f>
+        <v>COU19</v>
       </c>
       <c r="B13" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A13)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A13)</f>
         <v>43677</v>
       </c>
       <c r="C13">
@@ -12870,27 +12919,28 @@
         <v>81.460000000000008</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.4699999999999989</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.3349999999999937</v>
       </c>
       <c r="G13" s="23">
+        <f ca="1"/>
         <v>3.3349999999999937</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.460000000000008</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J12)</f>
-        <v>QSN9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J12)</f>
+        <v>QSN19</v>
       </c>
       <c r="K13" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J13)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J13)</f>
         <v>43657</v>
       </c>
       <c r="L13">
@@ -12900,39 +12950,40 @@
         <v>727.375</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>12.25</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="P13" s="23">
+        <f ca="1"/>
         <v>10</v>
       </c>
       <c r="Q13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>727.375</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="26"/>
       <c r="T13" s="1">
-        <f>B11</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43616</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAY19</v>
       </c>
       <c r="V13" s="9">
         <v>0.24414269542485476</v>
       </c>
       <c r="W13" s="27">
-        <f>K11</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43595</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>MAY19</v>
       </c>
       <c r="Y13" s="9">
@@ -12940,7 +12991,7 @@
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB13">
         <v>-0.3</v>
@@ -12953,11 +13004,11 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A13)</f>
-        <v>COV9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A13)</f>
+        <v>COV19</v>
       </c>
       <c r="B14" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A14)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A14)</f>
         <v>43707</v>
       </c>
       <c r="C14">
@@ -12967,27 +13018,28 @@
         <v>80.995000000000005</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.8900000000000006</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.7999999999999972</v>
       </c>
       <c r="G14" s="23">
+        <f ca="1"/>
         <v>3.7999999999999972</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.995000000000005</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J13)</f>
-        <v>QSQ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J13)</f>
+        <v>QSQ19</v>
       </c>
       <c r="K14" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J14)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J14)</f>
         <v>43689</v>
       </c>
       <c r="L14">
@@ -12997,39 +13049,40 @@
         <v>728.25</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>11.25</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>9.125</v>
       </c>
       <c r="P14" s="23">
+        <f ca="1"/>
         <v>9.125</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>728.25</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="26"/>
       <c r="T14" s="1">
-        <f>B12</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43644</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUN19</v>
       </c>
       <c r="V14" s="9">
         <v>0.23979500732178269</v>
       </c>
       <c r="W14" s="27">
-        <f>K12</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43628</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JUN19</v>
       </c>
       <c r="Y14" s="9">
@@ -13041,11 +13094,11 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A14)</f>
-        <v>COX9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A14)</f>
+        <v>COX19</v>
       </c>
       <c r="B15" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A15)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A15)</f>
         <v>43738</v>
       </c>
       <c r="C15">
@@ -13055,27 +13108,28 @@
         <v>80.625</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.2900000000000063</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.1700000000000017</v>
       </c>
       <c r="G15" s="23">
+        <f ca="1"/>
         <v>4.1700000000000017</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.625</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J14)</f>
-        <v>QSU9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J14)</f>
+        <v>QSU19</v>
       </c>
       <c r="K15" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J15)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J15)</f>
         <v>43720</v>
       </c>
       <c r="L15">
@@ -13085,39 +13139,40 @@
         <v>729.5</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7.875</v>
       </c>
       <c r="P15" s="23">
+        <f ca="1"/>
         <v>7.875</v>
       </c>
       <c r="Q15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>729.5</v>
       </c>
       <c r="R15" s="24"/>
       <c r="S15" s="26"/>
       <c r="T15" s="1">
-        <f>B13</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43677</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUL19</v>
       </c>
       <c r="V15" s="9">
         <v>0.24986064105040817</v>
       </c>
       <c r="W15" s="27">
-        <f>K13</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43657</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JUL19</v>
       </c>
       <c r="Y15" s="9">
@@ -13128,19 +13183,19 @@
         <v>34</v>
       </c>
       <c r="AB15" t="str">
-        <f>_xll.QCurves_CreateCorrelationMatrix(AA15,AA13,AB12:AC12,AB13:AC13)</f>
-        <v>CorrelMatrix¬9</v>
+        <f ca="1">_xll.QCurves_CreateCorrelationMatrix(AA15,AA13,AB12:AC12,AB13:AC13)</f>
+        <v>CorrelMatrix¬5</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A15)</f>
-        <v>COZ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A15)</f>
+        <v>COZ19</v>
       </c>
       <c r="B16" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A16)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A16)</f>
         <v>43769</v>
       </c>
       <c r="C16">
@@ -13150,27 +13205,28 @@
         <v>80.204999999999998</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.730000000000004</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.5900000000000034</v>
       </c>
       <c r="G16" s="23">
+        <f ca="1"/>
         <v>4.5900000000000034</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.204999999999998</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J15)</f>
-        <v>QSV9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J15)</f>
+        <v>QSV19</v>
       </c>
       <c r="K16" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J16)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J16)</f>
         <v>43748</v>
       </c>
       <c r="L16">
@@ -13180,39 +13236,40 @@
         <v>733</v>
       </c>
       <c r="N16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.5</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4.375</v>
       </c>
       <c r="P16" s="23">
+        <f ca="1"/>
         <v>4.375</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>733</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="26"/>
       <c r="T16" s="1">
-        <f>B14</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43707</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>AUG19</v>
       </c>
       <c r="V16" s="9">
         <v>0.24687541707337068</v>
       </c>
       <c r="W16" s="27">
-        <f>K14</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43689</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>AUG19</v>
       </c>
       <c r="Y16" s="9">
@@ -13225,11 +13282,11 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A16)</f>
-        <v>COF0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A16)</f>
+        <v>COF20</v>
       </c>
       <c r="B17" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A17)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A17)</f>
         <v>43798</v>
       </c>
       <c r="C17">
@@ -13239,27 +13296,28 @@
         <v>79.81</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.1200000000000045</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.9849999999999994</v>
       </c>
       <c r="G17" s="23">
+        <f ca="1"/>
         <v>4.9849999999999994</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.81</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J16)</f>
-        <v>QSX9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J16)</f>
+        <v>QSX19</v>
       </c>
       <c r="K17" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J17)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J17)</f>
         <v>43781</v>
       </c>
       <c r="L17">
@@ -13269,39 +13327,40 @@
         <v>736.25</v>
       </c>
       <c r="N17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9.75</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1.125</v>
       </c>
       <c r="P17" s="23">
+        <f ca="1"/>
         <v>1.125</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>736.25</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="26"/>
       <c r="T17" s="1">
-        <f>B15</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43738</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>SEP19</v>
       </c>
       <c r="V17" s="9">
         <v>0.24380419485384025</v>
       </c>
       <c r="W17" s="27">
-        <f>K15</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43720</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>SEP19</v>
       </c>
       <c r="Y17" s="9">
@@ -13314,11 +13373,11 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A17)</f>
-        <v>COG0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A17)</f>
+        <v>COG20</v>
       </c>
       <c r="B18" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A18)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A18)</f>
         <v>43830</v>
       </c>
       <c r="C18">
@@ -13328,27 +13387,28 @@
         <v>79.400000000000006</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.5100000000000051</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.394999999999996</v>
       </c>
       <c r="G18" s="23">
+        <f ca="1"/>
         <v>5.394999999999996</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.400000000000006</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J17)</f>
-        <v>QSZ9</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J17)</f>
+        <v>QSZ19</v>
       </c>
       <c r="K18" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J18)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J18)</f>
         <v>43811</v>
       </c>
       <c r="L18">
@@ -13358,39 +13418,40 @@
         <v>729</v>
       </c>
       <c r="N18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10.75</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8.375</v>
       </c>
       <c r="P18" s="23">
+        <f ca="1"/>
         <v>8.375</v>
       </c>
       <c r="Q18" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>729</v>
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="26"/>
       <c r="T18" s="1">
-        <f>B16</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43769</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>OCT19</v>
       </c>
       <c r="V18" s="9">
         <v>0.23933633186833844</v>
       </c>
       <c r="W18" s="27">
-        <f>K16</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43748</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>OCT19</v>
       </c>
       <c r="Y18" s="9">
@@ -13403,11 +13464,11 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A18)</f>
-        <v>COH0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A18)</f>
+        <v>COH20</v>
       </c>
       <c r="B19" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A19)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A19)</f>
         <v>43861</v>
       </c>
       <c r="C19">
@@ -13417,27 +13478,28 @@
         <v>79.010000000000005</v>
       </c>
       <c r="E19" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.9099999999999966</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.7849999999999966</v>
       </c>
       <c r="G19" s="23">
+        <f ca="1"/>
         <v>5.7849999999999966</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.010000000000005</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J18)</f>
-        <v>QSF0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J18)</f>
+        <v>QSF20</v>
       </c>
       <c r="K19" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J19)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J19)</f>
         <v>43840</v>
       </c>
       <c r="L19">
@@ -13447,39 +13509,40 @@
         <v>731.625</v>
       </c>
       <c r="N19" s="21">
-        <f>$L$4-L19</f>
+        <f ca="1">$L$4-L19</f>
         <v>10.25</v>
       </c>
       <c r="O19" s="21">
-        <f>IF(ISNUMBER(M19),$M$4-M19,"")</f>
+        <f ca="1">IF(ISNUMBER(M19),$M$4-M19,"")</f>
         <v>5.75</v>
       </c>
       <c r="P19" s="23">
+        <f ca="1"/>
         <v>5.75</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>731.625</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="26"/>
       <c r="T19" s="1">
-        <f>B17</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43798</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>NOV19</v>
       </c>
       <c r="V19" s="9">
         <v>0.24023713388502579</v>
       </c>
       <c r="W19" s="27">
-        <f>K17</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43781</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>NOV19</v>
       </c>
       <c r="Y19" s="9">
@@ -13492,11 +13555,11 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A19)</f>
-        <v>COJ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A19)</f>
+        <v>COJ20</v>
       </c>
       <c r="B20" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A20)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A20)</f>
         <v>43889</v>
       </c>
       <c r="C20">
@@ -13506,27 +13569,28 @@
         <v>78.614999999999995</v>
       </c>
       <c r="E20" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6.3200000000000074</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.1800000000000068</v>
       </c>
       <c r="G20" s="23">
+        <f ca="1"/>
         <v>6.1800000000000068</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.614999999999995</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J19)</f>
-        <v>QSG0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J19)</f>
+        <v>QSG20</v>
       </c>
       <c r="K20" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J20)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J20)</f>
         <v>43873</v>
       </c>
       <c r="L20">
@@ -13536,39 +13600,40 @@
         <v>734.125</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>11.5</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3.25</v>
       </c>
       <c r="P20" s="23">
+        <f ca="1"/>
         <v>3.25</v>
       </c>
       <c r="Q20" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>734.125</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="26"/>
       <c r="T20" s="1">
-        <f>B18</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43830</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DEC19</v>
       </c>
       <c r="V20" s="9">
         <v>0.23965305445062046</v>
       </c>
       <c r="W20" s="27">
-        <f>K18</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43811</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>DEC19</v>
       </c>
       <c r="Y20" s="9">
@@ -13581,11 +13646,11 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A20)</f>
-        <v>COK0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A20)</f>
+        <v>COK20</v>
       </c>
       <c r="B21" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A21)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A21)</f>
         <v>43921</v>
       </c>
       <c r="C21">
@@ -13595,27 +13660,28 @@
         <v>78.195000000000007</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6.7400000000000091</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="G21" s="23">
+        <f ca="1"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.195000000000007</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J20)</f>
-        <v>QSH0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J20)</f>
+        <v>QSH20</v>
       </c>
       <c r="K21" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J21)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J21)</f>
         <v>43902</v>
       </c>
       <c r="L21">
@@ -13625,39 +13691,40 @@
         <v>727.625</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13.25</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>9.75</v>
       </c>
       <c r="P21" s="23">
+        <f ca="1"/>
         <v>9.75</v>
       </c>
       <c r="Q21" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>727.625</v>
       </c>
       <c r="R21" s="24"/>
       <c r="S21" s="26"/>
       <c r="T21" s="1">
-        <f>B19</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43861</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JAN20</v>
       </c>
       <c r="V21" s="9">
         <v>0.23833434824329849</v>
       </c>
       <c r="W21" s="27">
-        <f>K19</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43840</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JAN20</v>
       </c>
       <c r="Y21" s="9">
@@ -13670,11 +13737,11 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A21)</f>
-        <v>COM0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A21)</f>
+        <v>COM20</v>
       </c>
       <c r="B22" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A22)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A22)</f>
         <v>43951</v>
       </c>
       <c r="C22">
@@ -13684,27 +13751,28 @@
         <v>77.83</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7.1400000000000006</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.9650000000000034</v>
       </c>
       <c r="G22" s="23">
+        <f ca="1"/>
         <v>6.9650000000000034</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.83</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J21)</f>
-        <v>QSJ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J21)</f>
+        <v>QSJ20</v>
       </c>
       <c r="K22" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J22)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J22)</f>
         <v>43929</v>
       </c>
       <c r="L22">
@@ -13714,39 +13782,40 @@
         <v>725.5</v>
       </c>
       <c r="N22" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>11.875</v>
       </c>
       <c r="P22" s="23">
+        <f ca="1"/>
         <v>11.875</v>
       </c>
       <c r="Q22" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>725.5</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="26"/>
       <c r="T22" s="1">
-        <f>B20</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43889</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>FEB20</v>
       </c>
       <c r="V22" s="9">
         <v>0.23866630909631376</v>
       </c>
       <c r="W22" s="27">
-        <f>K20</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43873</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>FEB20</v>
       </c>
       <c r="Y22" s="9">
@@ -13759,11 +13828,11 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A22)</f>
-        <v>CON0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A22)</f>
+        <v>CON20</v>
       </c>
       <c r="B23" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A23)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A23)</f>
         <v>43980</v>
       </c>
       <c r="C23">
@@ -13773,27 +13842,28 @@
         <v>77.41</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7.5400000000000063</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.3850000000000051</v>
       </c>
       <c r="G23" s="23">
+        <f ca="1"/>
         <v>7.3850000000000051</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.41</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J22)</f>
-        <v>QSK0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J22)</f>
+        <v>QSK20</v>
       </c>
       <c r="K23" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J23)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J23)</f>
         <v>43963</v>
       </c>
       <c r="L23">
@@ -13803,39 +13873,40 @@
         <v>722.125</v>
       </c>
       <c r="N23" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>19.5</v>
       </c>
       <c r="O23" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>15.25</v>
       </c>
       <c r="P23" s="23">
+        <f ca="1"/>
         <v>15.25</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>722.125</v>
       </c>
       <c r="R23" s="24"/>
       <c r="S23" s="26"/>
       <c r="T23" s="1">
-        <f>B21</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43921</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAR20</v>
       </c>
       <c r="V23" s="9">
         <v>0.23886859928218251</v>
       </c>
       <c r="W23" s="27">
-        <f>K21</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43902</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>MAR20</v>
       </c>
       <c r="Y23" s="9">
@@ -13848,11 +13919,11 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A23)</f>
-        <v>COQ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A23)</f>
+        <v>COQ20</v>
       </c>
       <c r="B24" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A24)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A24)</f>
         <v>44012</v>
       </c>
       <c r="C24">
@@ -13862,27 +13933,28 @@
         <v>77.010000000000005</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7.9399999999999977</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.7849999999999966</v>
       </c>
       <c r="G24" s="23">
+        <f ca="1"/>
         <v>7.7849999999999966</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.010000000000005</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J23)</f>
-        <v>QSM0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J23)</f>
+        <v>QSM20</v>
       </c>
       <c r="K24" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J24)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J24)</f>
         <v>43993</v>
       </c>
       <c r="L24">
@@ -13892,39 +13964,40 @@
         <v>715.375</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>23.5</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
       <c r="P24" s="23">
+        <f ca="1"/>
         <v>22</v>
       </c>
       <c r="Q24" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>715.375</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="26"/>
       <c r="T24" s="1">
-        <f>B22</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43951</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>APR20</v>
       </c>
       <c r="V24" s="9">
         <v>0.23651974364962741</v>
       </c>
       <c r="W24" s="27">
-        <f>K22</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43929</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>APR20</v>
       </c>
       <c r="Y24" s="9">
@@ -13937,11 +14010,11 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A24)</f>
-        <v>COU0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A24)</f>
+        <v>COU20</v>
       </c>
       <c r="B25" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A25)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A25)</f>
         <v>44043</v>
       </c>
       <c r="C25">
@@ -13951,69 +14024,71 @@
         <v>76.625</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8.3400000000000034</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.1700000000000017</v>
       </c>
       <c r="G25" s="23">
+        <f ca="1"/>
         <v>8.1700000000000017</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.625</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J24)</f>
-        <v>QSN0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J24)</f>
+        <v>QSN20</v>
       </c>
       <c r="K25" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J25)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J25)</f>
         <v>44022</v>
       </c>
       <c r="L25">
         <v>708.25</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N25" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>25.75</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P25" s="23">
+        <f ca="1"/>
         <v>24.104166666666668</v>
       </c>
       <c r="Q25" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>713.27083333333337</v>
       </c>
       <c r="R25" s="24"/>
       <c r="S25" s="26"/>
       <c r="T25" s="1">
-        <f>B23</f>
+        <f t="shared" ca="1" si="6"/>
         <v>43980</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAY20</v>
       </c>
       <c r="V25" s="9">
         <v>0.23583928805207185</v>
       </c>
       <c r="W25" s="27">
-        <f>K23</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43963</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>MAY20</v>
       </c>
       <c r="Y25" s="9">
@@ -14026,11 +14101,11 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A25)</f>
-        <v>COV0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A25)</f>
+        <v>COV20</v>
       </c>
       <c r="B26" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A26)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A26)</f>
         <v>44071</v>
       </c>
       <c r="C26">
@@ -14040,69 +14115,71 @@
         <v>76.239999999999995</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8.730000000000004</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.5550000000000068</v>
       </c>
       <c r="G26" s="23">
+        <f ca="1"/>
         <v>8.5550000000000068</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.239999999999995</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J25)</f>
-        <v>QSQ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J25)</f>
+        <v>QSQ20</v>
       </c>
       <c r="K26" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J26)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J26)</f>
         <v>44055</v>
       </c>
       <c r="L26">
         <v>705.5</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>28.5</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P26" s="23">
+        <f ca="1"/>
         <v>26.708333333333332</v>
       </c>
       <c r="Q26" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>710.66666666666663</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="26"/>
       <c r="T26" s="1">
-        <f>B24</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44012</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUN20</v>
       </c>
       <c r="V26" s="9">
         <v>0.23501166759554296</v>
       </c>
       <c r="W26" s="27">
-        <f>K24</f>
+        <f t="shared" ca="1" si="7"/>
         <v>43993</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JUN20</v>
       </c>
       <c r="Y26" s="9">
@@ -14115,11 +14192,11 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A26)</f>
-        <v>COX0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A26)</f>
+        <v>COX20</v>
       </c>
       <c r="B27" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A27)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A27)</f>
         <v>44104</v>
       </c>
       <c r="C27">
@@ -14129,69 +14206,71 @@
         <v>75.894999999999996</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9.1000000000000085</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.9000000000000057</v>
       </c>
       <c r="G27" s="23">
+        <f ca="1"/>
         <v>8.9000000000000057</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.894999999999996</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J26)</f>
-        <v>QSU0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J26)</f>
+        <v>QSU20</v>
       </c>
       <c r="K27" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J27)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J27)</f>
         <v>44084</v>
       </c>
       <c r="L27">
         <v>702.25</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N27" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>31.75</v>
       </c>
       <c r="O27" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P27" s="23">
+        <f ca="1"/>
         <v>29.8125</v>
       </c>
       <c r="Q27" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>707.5625</v>
       </c>
       <c r="R27" s="24"/>
       <c r="S27" s="26"/>
       <c r="T27" s="1">
-        <f>B25</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44043</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUL20</v>
       </c>
       <c r="V27" s="9">
         <v>0.2338232775548611</v>
       </c>
       <c r="W27" s="27">
-        <f>K25</f>
+        <f t="shared" ca="1" si="7"/>
         <v>44022</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>JUL20</v>
       </c>
       <c r="Y27" s="9">
@@ -14204,11 +14283,11 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A27)</f>
-        <v>COZ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A27)</f>
+        <v>COZ20</v>
       </c>
       <c r="B28" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A28)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A28)</f>
         <v>44134</v>
       </c>
       <c r="C28">
@@ -14218,69 +14297,71 @@
         <v>75.56</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9.480000000000004</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9.2349999999999994</v>
       </c>
       <c r="G28" s="23">
+        <f ca="1"/>
         <v>9.2349999999999994</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.56</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J27)</f>
-        <v>QSV0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J27)</f>
+        <v>QSV20</v>
       </c>
       <c r="K28" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J28)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J28)</f>
         <v>44116</v>
       </c>
       <c r="L28">
         <v>699.5</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>34.5</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P28" s="23">
+        <f ca="1"/>
         <v>32.416666666666664</v>
       </c>
       <c r="Q28" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>704.95833333333337</v>
       </c>
       <c r="R28" s="24"/>
       <c r="S28" s="26"/>
       <c r="T28" s="1">
-        <f>B26</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44071</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>AUG20</v>
       </c>
       <c r="V28" s="9">
         <v>0.23311565880682511</v>
       </c>
       <c r="W28" s="27">
-        <f>K26</f>
+        <f t="shared" ca="1" si="7"/>
         <v>44055</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>AUG20</v>
       </c>
       <c r="Y28" s="9">
@@ -14293,11 +14374,11 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A28)</f>
-        <v>COF1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A28)</f>
+        <v>COF21</v>
       </c>
       <c r="B29" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A29)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A29)</f>
         <v>44165</v>
       </c>
       <c r="C29">
@@ -14307,58 +14388,60 @@
         <v>75.17</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9.8400000000000034</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9.625</v>
       </c>
       <c r="G29" s="23">
+        <f ca="1"/>
         <v>9.625</v>
       </c>
       <c r="H29" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.17</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J28)</f>
-        <v>QSX0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J28)</f>
+        <v>QSX20</v>
       </c>
       <c r="K29" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J29)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J29)</f>
         <v>44147</v>
       </c>
       <c r="L29">
         <v>694.75</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>39.25</v>
       </c>
       <c r="O29" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P29" s="23">
+        <f ca="1"/>
         <v>37.020833333333336</v>
       </c>
       <c r="Q29" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>700.35416666666663</v>
       </c>
       <c r="R29" s="24"/>
       <c r="S29" s="26"/>
       <c r="T29" s="1">
-        <f>B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44104</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>SEP20</v>
       </c>
       <c r="V29" s="9">
@@ -14373,11 +14456,11 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A29)</f>
-        <v>COG1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A29)</f>
+        <v>COG21</v>
       </c>
       <c r="B30" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A30)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A30)</f>
         <v>44196</v>
       </c>
       <c r="C30">
@@ -14387,27 +14470,28 @@
         <v>74.820000000000007</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10.189999999999998</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9.9749999999999943</v>
       </c>
       <c r="G30" s="23">
+        <f ca="1"/>
         <v>9.9749999999999943</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.820000000000007</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J29)</f>
-        <v>QSZ0</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J29)</f>
+        <v>QSZ20</v>
       </c>
       <c r="K30" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J30)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J30)</f>
         <v>44175</v>
       </c>
       <c r="L30">
@@ -14417,28 +14501,29 @@
         <v>696</v>
       </c>
       <c r="N30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>43.75</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>41.375</v>
       </c>
       <c r="P30" s="23">
+        <f ca="1"/>
         <v>41.375</v>
       </c>
       <c r="Q30" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>696</v>
       </c>
       <c r="R30" s="24"/>
       <c r="S30" s="26"/>
       <c r="T30" s="1">
-        <f>B28</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44134</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>OCT20</v>
       </c>
       <c r="V30" s="9">
@@ -14453,11 +14538,11 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A30)</f>
-        <v>COH1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A30)</f>
+        <v>COH21</v>
       </c>
       <c r="B31" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A31)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A31)</f>
         <v>44225</v>
       </c>
       <c r="C31">
@@ -14467,58 +14552,60 @@
         <v>74.495000000000005</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10.519999999999996</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10.299999999999997</v>
       </c>
       <c r="G31" s="23">
+        <f ca="1"/>
         <v>10.299999999999997</v>
       </c>
       <c r="H31" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.495000000000005</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J30)</f>
-        <v>QSF1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J30)</f>
+        <v>QSF21</v>
       </c>
       <c r="K31" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J31)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J31)</f>
         <v>44208</v>
       </c>
       <c r="L31">
         <v>688.25</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N31" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>45.75</v>
       </c>
       <c r="O31" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P31" s="23">
+        <f ca="1"/>
         <v>43.770833333333336</v>
       </c>
       <c r="Q31" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>693.60416666666663</v>
       </c>
       <c r="R31" s="24"/>
       <c r="S31" s="26"/>
       <c r="T31" s="1">
-        <f>B29</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44165</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>NOV20</v>
       </c>
       <c r="V31" s="9">
@@ -14533,72 +14620,74 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A31)</f>
-        <v>COJ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A31)</f>
+        <v>COJ21</v>
       </c>
       <c r="B32" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A32)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A32)</f>
         <v>44253</v>
       </c>
       <c r="C32">
         <v>74.14</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10.840000000000003</v>
       </c>
       <c r="F32" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G32" s="23">
+        <f ca="1"/>
         <v>10.593333333333339</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.201666666666668</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J31)</f>
-        <v>QSG1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J31)</f>
+        <v>QSG21</v>
       </c>
       <c r="K32" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J32)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J32)</f>
         <v>44238</v>
       </c>
       <c r="L32">
         <v>686</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="O32" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P32" s="23">
+        <f ca="1"/>
         <v>46.416666666666664</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>690.95833333333337</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="26"/>
       <c r="T32" s="1">
-        <f>B30</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44196</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DEC20</v>
       </c>
       <c r="V32" s="9">
@@ -14613,72 +14702,74 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A32)</f>
-        <v>COK1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A32)</f>
+        <v>COK21</v>
       </c>
       <c r="B33" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A33)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A33)</f>
         <v>44286</v>
       </c>
       <c r="C33">
         <v>73.820000000000007</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11.159999999999997</v>
       </c>
       <c r="F33" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G33" s="23">
+        <f ca="1"/>
         <v>10.886666666666665</v>
       </c>
       <c r="H33" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.908333333333331</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J32)</f>
-        <v>QSH1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J32)</f>
+        <v>QSH21</v>
       </c>
       <c r="K33" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J33)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J33)</f>
         <v>44266</v>
       </c>
       <c r="L33">
         <v>683.5</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>50.5</v>
       </c>
       <c r="O33" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P33" s="23">
+        <f ca="1"/>
         <v>49.3125</v>
       </c>
       <c r="Q33" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>688.0625</v>
       </c>
       <c r="R33" s="24"/>
       <c r="S33" s="26"/>
       <c r="T33" s="1">
-        <f>B31</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44225</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JAN21</v>
       </c>
       <c r="V33" s="9">
@@ -14693,11 +14784,11 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A33)</f>
-        <v>COM1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A33)</f>
+        <v>COM21</v>
       </c>
       <c r="B34" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A34)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A34)</f>
         <v>44316</v>
       </c>
       <c r="C34">
@@ -14707,58 +14798,60 @@
         <v>73.614999999999995</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11.480000000000004</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11.180000000000007</v>
       </c>
       <c r="G34" s="23">
+        <f ca="1"/>
         <v>11.180000000000007</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.614999999999995</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J33)</f>
-        <v>QSJ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J33)</f>
+        <v>QSJ21</v>
       </c>
       <c r="K34" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J34)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J34)</f>
         <v>44298</v>
       </c>
       <c r="L34">
         <v>681</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="O34" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P34" s="23">
+        <f ca="1"/>
         <v>52.208333333333336</v>
       </c>
       <c r="Q34" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>685.16666666666663</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="26"/>
       <c r="T34" s="1">
-        <f>B32</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44253</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>FEB21</v>
       </c>
       <c r="V34" s="9">
@@ -14773,72 +14866,74 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A34)</f>
-        <v>CON1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A34)</f>
+        <v>CON21</v>
       </c>
       <c r="B35" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A35)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A35)</f>
         <v>44344</v>
       </c>
       <c r="C35">
         <v>73.180000000000007</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11.799999999999997</v>
       </c>
       <c r="F35" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G35" s="23">
+        <f ca="1"/>
         <v>11.499166666666666</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.295833333333334</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J34)</f>
-        <v>QSK1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J34)</f>
+        <v>QSK21</v>
       </c>
       <c r="K35" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J35)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J35)</f>
         <v>44328</v>
       </c>
       <c r="L35">
         <v>678.5</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>55.5</v>
       </c>
       <c r="O35" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P35" s="23">
+        <f ca="1"/>
         <v>55.104166666666664</v>
       </c>
       <c r="Q35" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>682.27083333333337</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="26"/>
       <c r="T35" s="1">
-        <f>B33</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44286</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAR21</v>
       </c>
       <c r="V35" s="9">
@@ -14853,41 +14948,42 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A35)</f>
-        <v>COQ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A35)</f>
+        <v>COQ21</v>
       </c>
       <c r="B36" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A36)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A36)</f>
         <v>44377</v>
       </c>
       <c r="C36">
         <v>72.86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12.120000000000005</v>
       </c>
       <c r="F36" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G36" s="23">
+        <f ca="1"/>
         <v>11.818333333333337</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.976666666666659</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J35)</f>
-        <v>QSM1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J35)</f>
+        <v>QSM21</v>
       </c>
       <c r="K36" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J36)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J36)</f>
         <v>44357</v>
       </c>
       <c r="L36">
@@ -14897,28 +14993,29 @@
         <v>678.875</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>58.5</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>58.5</v>
       </c>
       <c r="P36" s="23">
+        <f ca="1"/>
         <v>58.5</v>
       </c>
       <c r="Q36" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>678.875</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="26"/>
       <c r="T36" s="1">
-        <f>B34</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44316</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>APR21</v>
       </c>
       <c r="V36" s="9">
@@ -14933,72 +15030,74 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A36)</f>
-        <v>COU1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A36)</f>
+        <v>COU21</v>
       </c>
       <c r="B37" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A37)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A37)</f>
         <v>44407</v>
       </c>
       <c r="C37">
         <v>72.58</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12.400000000000006</v>
       </c>
       <c r="F37" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G37" s="23">
+        <f ca="1"/>
         <v>12.097500000000004</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.697499999999991</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J36)</f>
-        <v>QSN1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J36)</f>
+        <v>QSN21</v>
       </c>
       <c r="K37" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J37)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J37)</f>
         <v>44389</v>
       </c>
       <c r="L37">
         <v>672.5</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>61.5</v>
       </c>
       <c r="O37" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P37" s="23">
+        <f ca="1"/>
         <v>61.208333333333336</v>
       </c>
       <c r="Q37" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>676.16666666666663</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="26"/>
       <c r="T37" s="1">
-        <f>B35</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44344</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>MAY21</v>
       </c>
       <c r="V37" s="9">
@@ -15013,72 +15112,74 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A37)</f>
-        <v>COV1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A37)</f>
+        <v>COV21</v>
       </c>
       <c r="B38" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A38)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A38)</f>
         <v>44439</v>
       </c>
       <c r="C38">
         <v>72.290000000000006</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12.689999999999998</v>
       </c>
       <c r="F38" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G38" s="23">
+        <f ca="1"/>
         <v>12.386666666666661</v>
       </c>
       <c r="H38" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.408333333333346</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J37)</f>
-        <v>QSQ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J37)</f>
+        <v>QSQ21</v>
       </c>
       <c r="K38" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J38)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J38)</f>
         <v>44420</v>
       </c>
       <c r="L38">
         <v>669.5</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>64.5</v>
       </c>
       <c r="O38" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P38" s="23">
+        <f ca="1"/>
         <v>63.916666666666664</v>
       </c>
       <c r="Q38" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>673.45833333333337</v>
       </c>
       <c r="R38" s="24"/>
       <c r="S38" s="26"/>
       <c r="T38" s="1">
-        <f>B36</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44377</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUN21</v>
       </c>
       <c r="V38" s="9">
@@ -15093,72 +15194,74 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A38)</f>
-        <v>COX1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A38)</f>
+        <v>COX21</v>
       </c>
       <c r="B39" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A39)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A39)</f>
         <v>44469</v>
       </c>
       <c r="C39">
         <v>72.010000000000005</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12.969999999999999</v>
       </c>
       <c r="F39" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G39" s="23">
+        <f ca="1"/>
         <v>12.665833333333326</v>
       </c>
       <c r="H39" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.129166666666677</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J38)</f>
-        <v>QSU1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J38)</f>
+        <v>QSU21</v>
       </c>
       <c r="K39" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J39)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J39)</f>
         <v>44449</v>
       </c>
       <c r="L39">
         <v>666.5</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N39" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>67.5</v>
       </c>
       <c r="O39" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P39" s="23">
+        <f ca="1"/>
         <v>66.625</v>
       </c>
       <c r="Q39" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>670.75</v>
       </c>
       <c r="R39" s="24"/>
       <c r="S39" s="26"/>
       <c r="T39" s="1">
-        <f>B37</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44407</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JUL21</v>
       </c>
       <c r="V39" s="9">
@@ -15173,11 +15276,11 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A39)</f>
-        <v>COZ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A39)</f>
+        <v>COZ21</v>
       </c>
       <c r="B40" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A40)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A40)</f>
         <v>44498</v>
       </c>
       <c r="C40">
@@ -15187,58 +15290,60 @@
         <v>71.850000000000009</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13.25</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12.944999999999993</v>
       </c>
       <c r="G40" s="23">
+        <f ca="1"/>
         <v>12.944999999999993</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.850000000000009</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J39)</f>
-        <v>QSV1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J39)</f>
+        <v>QSV21</v>
       </c>
       <c r="K40" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J40)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J40)</f>
         <v>44481</v>
       </c>
       <c r="L40">
         <v>663.5</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N40" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>70.5</v>
       </c>
       <c r="O40" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P40" s="23">
+        <f ca="1"/>
         <v>69.333333333333329</v>
       </c>
       <c r="Q40" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>668.04166666666663</v>
       </c>
       <c r="R40" s="24"/>
       <c r="S40" s="26"/>
       <c r="T40" s="1">
-        <f>B38</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44439</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>AUG21</v>
       </c>
       <c r="V40" s="9">
@@ -15253,72 +15358,74 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A40)</f>
-        <v>COF2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A40)</f>
+        <v>COF22</v>
       </c>
       <c r="B41" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A41)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A41)</f>
         <v>44530</v>
       </c>
       <c r="C41">
         <v>71.45</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13.530000000000001</v>
       </c>
       <c r="F41" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G41" s="23">
+        <f ca="1"/>
         <v>13.359999999999994</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.435000000000002</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J40)</f>
-        <v>QSX1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J40)</f>
+        <v>QSX21</v>
       </c>
       <c r="K41" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J41)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J41)</f>
         <v>44511</v>
       </c>
       <c r="L41">
         <v>660.25</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N41" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>73.75</v>
       </c>
       <c r="O41" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P41" s="23">
+        <f ca="1"/>
         <v>72.291666666666671</v>
       </c>
       <c r="Q41" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>665.08333333333337</v>
       </c>
       <c r="R41" s="24"/>
       <c r="S41" s="26"/>
       <c r="T41" s="1">
-        <f>B39</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44469</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>SEP21</v>
       </c>
       <c r="V41" s="9">
@@ -15333,41 +15440,42 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A41)</f>
-        <v>COG2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A41)</f>
+        <v>COG22</v>
       </c>
       <c r="B42" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A42)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A42)</f>
         <v>44561</v>
       </c>
       <c r="C42">
         <v>71.180000000000007</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13.799999999999997</v>
       </c>
       <c r="F42" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G42" s="23">
+        <f ca="1"/>
         <v>13.764999999999992</v>
       </c>
       <c r="H42" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.030000000000015</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J41)</f>
-        <v>QSZ1</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J41)</f>
+        <v>QSZ21</v>
       </c>
       <c r="K42" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J42)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J42)</f>
         <v>44540</v>
       </c>
       <c r="L42">
@@ -15377,28 +15485,29 @@
         <v>662.125</v>
       </c>
       <c r="N42" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="O42" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.25</v>
       </c>
       <c r="P42" s="23">
+        <f ca="1"/>
         <v>75.25</v>
       </c>
       <c r="Q42" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>662.125</v>
       </c>
       <c r="R42" s="24"/>
       <c r="S42" s="26"/>
       <c r="T42" s="1">
-        <f>B40</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44498</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>OCT21</v>
       </c>
       <c r="V42" s="9">
@@ -15413,72 +15522,74 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A42)</f>
-        <v>COH2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A42)</f>
+        <v>COH22</v>
       </c>
       <c r="B43" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A43)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A43)</f>
         <v>44592</v>
       </c>
       <c r="C43">
         <v>70.97</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.010000000000005</v>
       </c>
       <c r="F43" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G43" s="23">
+        <f ca="1"/>
         <v>14.11</v>
       </c>
       <c r="H43" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>70.685000000000002</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J42)</f>
-        <v>QSF2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J42)</f>
+        <v>QSF22</v>
       </c>
       <c r="K43" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J43)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J43)</f>
         <v>44573</v>
       </c>
       <c r="L43">
         <v>655.25</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.75</v>
       </c>
       <c r="O43" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P43" s="23">
+        <f ca="1"/>
         <v>76.854166666666671</v>
       </c>
       <c r="Q43" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>660.52083333333337</v>
       </c>
       <c r="R43" s="24"/>
       <c r="S43" s="26"/>
       <c r="T43" s="1">
-        <f>B41</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44530</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>NOV21</v>
       </c>
       <c r="V43" s="9">
@@ -15493,72 +15604,74 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A43)</f>
-        <v>COJ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A43)</f>
+        <v>COJ22</v>
       </c>
       <c r="B44" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A44)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A44)</f>
         <v>44620</v>
       </c>
       <c r="C44">
         <v>70.760000000000005</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.219999999999999</v>
       </c>
       <c r="F44" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G44" s="23">
+        <f ca="1"/>
         <v>14.454999999999993</v>
       </c>
       <c r="H44" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>70.34</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J43)</f>
-        <v>QSG2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J43)</f>
+        <v>QSG22</v>
       </c>
       <c r="K44" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J44)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J44)</f>
         <v>44602</v>
       </c>
       <c r="L44">
         <v>653.5</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N44" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>80.5</v>
       </c>
       <c r="O44" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P44" s="23">
+        <f ca="1"/>
         <v>78.458333333333329</v>
       </c>
       <c r="Q44" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>658.91666666666663</v>
       </c>
       <c r="R44" s="24"/>
       <c r="S44" s="6"/>
       <c r="T44" s="1">
-        <f>B42</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44561</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DEC21</v>
       </c>
       <c r="V44" s="9">
@@ -15573,72 +15686,74 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A44)</f>
-        <v>COK2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A44)</f>
+        <v>COK22</v>
       </c>
       <c r="B45" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A45)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A45)</f>
         <v>44651</v>
       </c>
       <c r="C45">
         <v>70.56</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.420000000000002</v>
       </c>
       <c r="F45" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G45" s="23">
+        <f ca="1"/>
         <v>14.789999999999997</v>
       </c>
       <c r="H45" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>70.00500000000001</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J44)</f>
-        <v>QSH2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J44)</f>
+        <v>QSH22</v>
       </c>
       <c r="K45" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J45)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J45)</f>
         <v>44630</v>
       </c>
       <c r="L45">
         <v>651.75</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N45" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>82.25</v>
       </c>
       <c r="O45" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P45" s="23">
+        <f ca="1"/>
         <v>80.0625</v>
       </c>
       <c r="Q45" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>657.3125</v>
       </c>
       <c r="R45" s="24"/>
       <c r="S45" s="6"/>
       <c r="T45" s="1">
-        <f>B43</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44592</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>JAN22</v>
       </c>
       <c r="V45" s="9">
@@ -15653,11 +15768,11 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A45)</f>
-        <v>COM2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A45)</f>
+        <v>COM22</v>
       </c>
       <c r="B46" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A46)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A46)</f>
         <v>44680</v>
       </c>
       <c r="C46">
@@ -15667,48 +15782,50 @@
         <v>69.67</v>
       </c>
       <c r="E46" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.620000000000005</v>
       </c>
       <c r="F46" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15.125</v>
       </c>
       <c r="G46" s="23">
+        <f ca="1"/>
         <v>15.125</v>
       </c>
       <c r="H46" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.67</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J45)</f>
-        <v>QSJ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J45)</f>
+        <v>QSJ22</v>
       </c>
       <c r="K46" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J46)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J46)</f>
         <v>44663</v>
       </c>
       <c r="L46">
         <v>650.25</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N46" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>83.75</v>
       </c>
       <c r="O46" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P46" s="23">
+        <f ca="1"/>
         <v>81.416666666666671</v>
       </c>
       <c r="Q46" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>655.95833333333337</v>
       </c>
       <c r="R46" s="24"/>
@@ -15719,62 +15836,64 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A46)</f>
-        <v>CON2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A46)</f>
+        <v>CON22</v>
       </c>
       <c r="B47" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A47)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A47)</f>
         <v>44712</v>
       </c>
       <c r="C47">
         <v>70.16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14.820000000000007</v>
       </c>
       <c r="F47" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G47" s="23">
+        <f ca="1"/>
         <v>15.186666666666669</v>
       </c>
       <c r="H47" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.608333333333334</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J46)</f>
-        <v>QSK2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J46)</f>
+        <v>QSK22</v>
       </c>
       <c r="K47" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J47)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J47)</f>
         <v>44693</v>
       </c>
       <c r="L47">
         <v>648.75</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N47" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>85.25</v>
       </c>
       <c r="O47" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P47" s="23">
+        <f ca="1"/>
         <v>82.770833333333329</v>
       </c>
       <c r="Q47" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>654.60416666666663</v>
       </c>
       <c r="R47" s="24"/>
@@ -15785,62 +15904,64 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A47)</f>
-        <v>COQ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A47)</f>
+        <v>COQ22</v>
       </c>
       <c r="B48" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A48)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A48)</f>
         <v>44742</v>
       </c>
       <c r="C48">
         <v>69.960000000000008</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.019999999999996</v>
       </c>
       <c r="F48" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G48" s="23">
+        <f ca="1"/>
         <v>15.248333333333326</v>
       </c>
       <c r="H48" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.546666666666681</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J47)</f>
-        <v>QSM2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J47)</f>
+        <v>QSM22</v>
       </c>
       <c r="K48" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J48)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J48)</f>
         <v>44722</v>
       </c>
       <c r="L48">
         <v>647.25</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N48" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>86.75</v>
       </c>
       <c r="O48" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P48" s="23">
+        <f ca="1"/>
         <v>84.125</v>
       </c>
       <c r="Q48" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>653.25</v>
       </c>
       <c r="R48" s="24"/>
@@ -15851,62 +15972,64 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A48)</f>
-        <v>COU2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A48)</f>
+        <v>COU22</v>
       </c>
       <c r="B49" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A49)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A49)</f>
         <v>44771</v>
       </c>
       <c r="C49">
         <v>69.760000000000005</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.219999999999999</v>
       </c>
       <c r="F49" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G49" s="23">
+        <f ca="1"/>
         <v>15.309999999999995</v>
       </c>
       <c r="H49" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.485000000000014</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J48)</f>
-        <v>QSN2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J48)</f>
+        <v>QSN22</v>
       </c>
       <c r="K49" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J49)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J49)</f>
         <v>44754</v>
       </c>
       <c r="L49">
         <v>645.5</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N49" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>88.5</v>
       </c>
       <c r="O49" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P49" s="23">
+        <f ca="1"/>
         <v>85.729166666666671</v>
       </c>
       <c r="Q49" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>651.64583333333337</v>
       </c>
       <c r="R49" s="24"/>
@@ -15917,62 +16040,64 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A49)</f>
-        <v>COV2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A49)</f>
+        <v>COV22</v>
       </c>
       <c r="B50" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A50)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A50)</f>
         <v>44804</v>
       </c>
       <c r="C50">
         <v>69.56</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.420000000000002</v>
       </c>
       <c r="F50" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G50" s="23">
+        <f ca="1"/>
         <v>15.371666666666664</v>
       </c>
       <c r="H50" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.423333333333332</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J49)</f>
-        <v>QSQ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J49)</f>
+        <v>QSQ22</v>
       </c>
       <c r="K50" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J50)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J50)</f>
         <v>44784</v>
       </c>
       <c r="L50">
         <v>643.75</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>90.25</v>
       </c>
       <c r="O50" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P50" s="23">
+        <f ca="1"/>
         <v>87.333333333333329</v>
       </c>
       <c r="Q50" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>650.04166666666663</v>
       </c>
       <c r="R50" s="24"/>
@@ -15983,62 +16108,64 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A50)</f>
-        <v>COX2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A50)</f>
+        <v>COX22</v>
       </c>
       <c r="B51" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A51)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A51)</f>
         <v>44834</v>
       </c>
       <c r="C51">
         <v>69.350000000000009</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.629999999999995</v>
       </c>
       <c r="F51" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G51" s="23">
+        <f ca="1"/>
         <v>15.443333333333326</v>
       </c>
       <c r="H51" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.351666666666674</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J50)</f>
-        <v>QSU2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J50)</f>
+        <v>QSU22</v>
       </c>
       <c r="K51" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J51)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J51)</f>
         <v>44816</v>
       </c>
       <c r="L51">
         <v>642</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N51" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>92</v>
       </c>
       <c r="O51" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P51" s="23">
+        <f ca="1"/>
         <v>88.9375</v>
       </c>
       <c r="Q51" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>648.4375</v>
       </c>
       <c r="R51" s="24"/>
@@ -16049,11 +16176,11 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A51)</f>
-        <v>COZ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A51)</f>
+        <v>COZ22</v>
       </c>
       <c r="B52" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A52)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A52)</f>
         <v>44865</v>
       </c>
       <c r="C52">
@@ -16063,48 +16190,50 @@
         <v>69.290000000000006</v>
       </c>
       <c r="E52" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.829999999999998</v>
       </c>
       <c r="F52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15.504999999999995</v>
       </c>
       <c r="G52" s="23">
+        <f ca="1"/>
         <v>15.504999999999995</v>
       </c>
       <c r="H52" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.290000000000006</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J51)</f>
-        <v>QSV2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J51)</f>
+        <v>QSV22</v>
       </c>
       <c r="K52" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J52)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J52)</f>
         <v>44846</v>
       </c>
       <c r="L52">
         <v>640.5</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N52" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>93.5</v>
       </c>
       <c r="O52" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P52" s="23">
+        <f ca="1"/>
         <v>90.291666666666671</v>
       </c>
       <c r="Q52" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>647.08333333333337</v>
       </c>
       <c r="R52" s="24"/>
@@ -16115,62 +16244,64 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A52)</f>
-        <v>COF3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A52)</f>
+        <v>COF23</v>
       </c>
       <c r="B53" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A53)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A53)</f>
         <v>44895</v>
       </c>
       <c r="C53">
         <v>69.010000000000005</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15.969999999999999</v>
       </c>
       <c r="F53" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G53" s="23">
+        <f ca="1"/>
         <v>15.646249999999997</v>
       </c>
       <c r="H53" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.148750000000007</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J52)</f>
-        <v>QSX2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J52)</f>
+        <v>QSX22</v>
       </c>
       <c r="K53" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J53)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J53)</f>
         <v>44875</v>
       </c>
       <c r="L53">
         <v>639</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>95</v>
       </c>
       <c r="O53" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P53" s="23">
+        <f ca="1"/>
         <v>91.645833333333329</v>
       </c>
       <c r="Q53" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>645.72916666666663</v>
       </c>
       <c r="R53" s="24"/>
@@ -16181,41 +16312,42 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A53)</f>
-        <v>COG3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A53)</f>
+        <v>COG23</v>
       </c>
       <c r="B54" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A54)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A54)</f>
         <v>44925</v>
       </c>
       <c r="C54">
         <v>68.87</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="21">
-        <f t="shared" ref="E54:E63" si="8">$C$4-C54</f>
+        <f t="shared" ref="E54:E63" ca="1" si="10">$C$4-C54</f>
         <v>16.11</v>
       </c>
       <c r="F54" s="21" t="str">
-        <f t="shared" ref="F54:F63" si="9">IF(ISNUMBER(D54),$D$4-D54,"")</f>
+        <f t="shared" ref="F54:F63" ca="1" si="11">IF(ISNUMBER(D54),$D$4-D54,"")</f>
         <v/>
       </c>
       <c r="G54" s="23">
+        <f ca="1"/>
         <v>15.787499999999996</v>
       </c>
       <c r="H54" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.007500000000007</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J53)</f>
-        <v>QSZ2</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J53)</f>
+        <v>QSZ22</v>
       </c>
       <c r="K54" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J54)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J54)</f>
         <v>44907</v>
       </c>
       <c r="L54">
@@ -16225,18 +16357,19 @@
         <v>644.375</v>
       </c>
       <c r="N54" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>96.5</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>93</v>
       </c>
       <c r="P54" s="23">
+        <f ca="1"/>
         <v>93</v>
       </c>
       <c r="Q54" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>644.375</v>
       </c>
       <c r="R54" s="24"/>
@@ -16247,62 +16380,64 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A54)</f>
-        <v>COH3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A54)</f>
+        <v>COH23</v>
       </c>
       <c r="B55" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A55)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A55)</f>
         <v>44957</v>
       </c>
       <c r="C55">
         <v>68.739999999999995</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.240000000000009</v>
       </c>
       <c r="F55" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G55" s="23">
+        <f ca="1"/>
         <v>15.918750000000006</v>
       </c>
       <c r="H55" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.876249999999999</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J54)</f>
-        <v>QSF3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J54)</f>
+        <v>QSF23</v>
       </c>
       <c r="K55" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J55)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J55)</f>
         <v>44938</v>
       </c>
       <c r="L55">
         <v>637.75</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N55" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>96.25</v>
       </c>
       <c r="O55" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P55" s="23">
+        <f ca="1"/>
         <v>92.75</v>
       </c>
       <c r="Q55" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>644.625</v>
       </c>
       <c r="R55" s="24"/>
@@ -16313,62 +16448,64 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A55)</f>
-        <v>COJ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A55)</f>
+        <v>COJ23</v>
       </c>
       <c r="B56" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A56)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A56)</f>
         <v>44985</v>
       </c>
       <c r="C56">
         <v>68.61</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.370000000000005</v>
       </c>
       <c r="F56" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G56" s="23">
+        <f ca="1"/>
         <v>16.05</v>
       </c>
       <c r="H56" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.745000000000005</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J55)</f>
-        <v>QSG3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J55)</f>
+        <v>QSG23</v>
       </c>
       <c r="K56" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J56)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J56)</f>
         <v>44967</v>
       </c>
       <c r="L56">
         <v>638</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N56" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>96</v>
       </c>
       <c r="O56" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P56" s="23">
+        <f ca="1"/>
         <v>92.5</v>
       </c>
       <c r="Q56" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>644.875</v>
       </c>
       <c r="R56" s="24"/>
@@ -16379,62 +16516,64 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A56)</f>
-        <v>COK3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A56)</f>
+        <v>COK23</v>
       </c>
       <c r="B57" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A57)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A57)</f>
         <v>45016</v>
       </c>
       <c r="C57">
         <v>68.48</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.5</v>
       </c>
       <c r="F57" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G57" s="23">
+        <f ca="1"/>
         <v>16.181249999999999</v>
       </c>
       <c r="H57" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.61375000000001</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J56)</f>
-        <v>QSH3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J56)</f>
+        <v>QSH23</v>
       </c>
       <c r="K57" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J57)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J57)</f>
         <v>44995</v>
       </c>
       <c r="L57">
         <v>638.25</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N57" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>95.75</v>
       </c>
       <c r="O57" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P57" s="23">
+        <f ca="1"/>
         <v>92.25</v>
       </c>
       <c r="Q57" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>645.125</v>
       </c>
       <c r="R57" s="24"/>
@@ -16445,62 +16584,64 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A57)</f>
-        <v>COM3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A57)</f>
+        <v>COM23</v>
       </c>
       <c r="B58" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A58)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A58)</f>
         <v>45044</v>
       </c>
       <c r="C58">
         <v>68.350000000000009</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.629999999999995</v>
       </c>
       <c r="F58" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G58" s="23">
+        <f ca="1"/>
         <v>16.312499999999993</v>
       </c>
       <c r="H58" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.482500000000016</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J57)</f>
-        <v>QSJ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J57)</f>
+        <v>QSJ23</v>
       </c>
       <c r="K58" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J58)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J58)</f>
         <v>45028</v>
       </c>
       <c r="L58">
         <v>638.5</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>95.5</v>
       </c>
       <c r="O58" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P58" s="23">
+        <f ca="1"/>
         <v>92</v>
       </c>
       <c r="Q58" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>645.375</v>
       </c>
       <c r="R58" s="24"/>
@@ -16511,62 +16652,64 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A58)</f>
-        <v>CON3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A58)</f>
+        <v>CON23</v>
       </c>
       <c r="B59" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A59)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A59)</f>
         <v>45077</v>
       </c>
       <c r="C59">
         <v>68.210000000000008</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.769999999999996</v>
       </c>
       <c r="F59" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G59" s="23">
+        <f ca="1"/>
         <v>16.453749999999992</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.341250000000002</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J58)</f>
-        <v>QSK3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J58)</f>
+        <v>QSK23</v>
       </c>
       <c r="K59" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J59)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J59)</f>
         <v>45057</v>
       </c>
       <c r="L59">
         <v>638.75</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>95.25</v>
       </c>
       <c r="O59" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P59" s="23">
+        <f ca="1"/>
         <v>91.75</v>
       </c>
       <c r="Q59" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>645.625</v>
       </c>
       <c r="R59" s="24"/>
@@ -16577,62 +16720,64 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A59)</f>
-        <v>COQ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A59)</f>
+        <v>COQ23</v>
       </c>
       <c r="B60" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A60)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A60)</f>
         <v>45107</v>
       </c>
       <c r="C60">
         <v>68.070000000000007</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.909999999999997</v>
       </c>
       <c r="F60" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G60" s="23">
+        <f ca="1"/>
         <v>16.594999999999995</v>
       </c>
       <c r="H60" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.2</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J59)</f>
-        <v>QSM3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J59)</f>
+        <v>QSM23</v>
       </c>
       <c r="K60" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J60)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J60)</f>
         <v>45089</v>
       </c>
       <c r="L60">
         <v>639</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N60" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>95</v>
       </c>
       <c r="O60" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P60" s="23">
+        <f ca="1"/>
         <v>91.5</v>
       </c>
       <c r="Q60" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>645.875</v>
       </c>
       <c r="R60" s="24"/>
@@ -16643,62 +16788,64 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A60)</f>
-        <v>COU3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A60)</f>
+        <v>COU23</v>
       </c>
       <c r="B61" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A61)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A61)</f>
         <v>45138</v>
       </c>
       <c r="C61">
         <v>67.94</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>17.040000000000006</v>
       </c>
       <c r="F61" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G61" s="23">
+        <f ca="1"/>
         <v>16.726250000000004</v>
       </c>
       <c r="H61" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>68.068749999999994</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J60)</f>
-        <v>QSN3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J60)</f>
+        <v>QSN23</v>
       </c>
       <c r="K61" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J61)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J61)</f>
         <v>45119</v>
       </c>
       <c r="L61">
         <v>639.25</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N61" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>94.75</v>
       </c>
       <c r="O61" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P61" s="23">
+        <f ca="1"/>
         <v>91.25</v>
       </c>
       <c r="Q61" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>646.125</v>
       </c>
       <c r="R61" s="24"/>
@@ -16709,62 +16856,64 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A61)</f>
-        <v>COV3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A61)</f>
+        <v>COV23</v>
       </c>
       <c r="B62" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A62)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A62)</f>
         <v>45169</v>
       </c>
       <c r="C62">
         <v>67.81</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>17.170000000000002</v>
       </c>
       <c r="F62" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G62" s="23">
+        <f ca="1"/>
         <v>16.857499999999998</v>
       </c>
       <c r="H62" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>67.9375</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J61)</f>
-        <v>QSQ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J61)</f>
+        <v>QSQ23</v>
       </c>
       <c r="K62" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J62)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J62)</f>
         <v>45148</v>
       </c>
       <c r="L62">
         <v>639.5</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N62" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>94.5</v>
       </c>
       <c r="O62" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P62" s="23">
+        <f ca="1"/>
         <v>91</v>
       </c>
       <c r="Q62" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>646.375</v>
       </c>
       <c r="R62" s="24"/>
@@ -16775,61 +16924,63 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A62)</f>
-        <v>COX3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A62)</f>
+        <v>COX23</v>
       </c>
       <c r="B63" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A63)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A63)</f>
         <v>45198</v>
       </c>
       <c r="C63">
         <v>67.680000000000007</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>17.299999999999997</v>
       </c>
       <c r="F63" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="G63" s="23">
+        <f ca="1"/>
         <v>16.988749999999996</v>
       </c>
       <c r="H63" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>67.806250000000006</v>
       </c>
       <c r="J63" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J62)</f>
-        <v>QSU3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J62)</f>
+        <v>QSU23</v>
       </c>
       <c r="K63" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J63)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J63)</f>
         <v>45181</v>
       </c>
       <c r="L63">
         <v>639.75</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>94.25</v>
       </c>
       <c r="O63" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P63" s="23">
+        <f ca="1"/>
         <v>90.75</v>
       </c>
       <c r="Q63" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>646.625</v>
       </c>
       <c r="R63" s="24"/>
@@ -16839,11 +16990,11 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A63)</f>
-        <v>COZ3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A63)</f>
+        <v>COZ23</v>
       </c>
       <c r="B64" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A64)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A64)</f>
         <v>45230</v>
       </c>
       <c r="C64">
@@ -16853,47 +17004,49 @@
         <v>67.674999999999997</v>
       </c>
       <c r="E64" s="21">
-        <f t="shared" ref="E64:E65" si="10">$C$4-C64</f>
+        <f t="shared" ref="E64:E65" ca="1" si="12">$C$4-C64</f>
         <v>17.430000000000007</v>
       </c>
       <c r="F64" s="21">
-        <f t="shared" ref="F64:F65" si="11">IF(ISNUMBER(D64),$D$4-D64,"")</f>
+        <f t="shared" ref="F64:F65" ca="1" si="13">IF(ISNUMBER(D64),$D$4-D64,"")</f>
         <v>17.120000000000005</v>
       </c>
       <c r="G64" s="23">
+        <f ca="1"/>
         <v>17.120000000000005</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>67.674999999999997</v>
       </c>
       <c r="J64" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J63)</f>
-        <v>QSV3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J63)</f>
+        <v>QSV23</v>
       </c>
       <c r="K64" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J64)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J64)</f>
         <v>45211</v>
       </c>
       <c r="L64">
         <v>640</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N64" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>94</v>
       </c>
       <c r="O64" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P64" s="23">
+        <f ca="1"/>
         <v>90.5</v>
       </c>
       <c r="Q64" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>646.875</v>
       </c>
       <c r="R64" s="24"/>
@@ -16903,61 +17056,63 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(A64)</f>
-        <v>COF4</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(A64)</f>
+        <v>COF24</v>
       </c>
       <c r="B65" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(A65)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(A65)</f>
         <v>45260</v>
       </c>
       <c r="C65">
         <v>67.45</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>17.53</v>
       </c>
       <c r="F65" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="G65" s="23">
+        <f ca="1"/>
         <v>17.22</v>
       </c>
       <c r="H65" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>67.575000000000003</v>
       </c>
       <c r="J65" s="20" t="str">
-        <f>_xll.QDates_FuturesNextCode(J64)</f>
-        <v>QSX3</v>
+        <f ca="1">_xll.QDates_FuturesNextCode(J64)</f>
+        <v>QSX23</v>
       </c>
       <c r="K65" s="17">
-        <f>_xll.QDates_FuturesExpiryFromCode(J65)</f>
+        <f ca="1">_xll.QDates_FuturesExpiryFromCode(J65)</f>
         <v>45240</v>
       </c>
       <c r="L65">
         <v>640.25</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N65" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>93.75</v>
       </c>
       <c r="O65" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P65" s="23">
+        <f ca="1"/>
         <v>90.25</v>
       </c>
       <c r="Q65" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>647.125</v>
       </c>
       <c r="R65" s="24"/>
@@ -17372,552 +17527,552 @@
     </row>
     <row r="147" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA147" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA146,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA146,"1b","P","LON")</f>
         <v>-1</v>
       </c>
       <c r="AB147" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA147,$AA147)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA147,$AA147)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC147" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA147,$AA147)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA147,$AA147)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD147" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA147,$AA147)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA147,$AA147)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE147" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA147,$AA147)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA147,$AA147)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF147" s="1"/>
     </row>
     <row r="148" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA148" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA147,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA147,"1b","P","LON")</f>
         <v>-2</v>
       </c>
       <c r="AB148" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA148,$AA148)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA148,$AA148)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC148" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA148,$AA148)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA148,$AA148)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD148" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA148,$AA148)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA148,$AA148)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE148" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA148,$AA148)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA148,$AA148)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF148" s="1"/>
     </row>
     <row r="149" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA149" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA148,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA148,"1b","P","LON")</f>
         <v>-3</v>
       </c>
       <c r="AB149" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA149,$AA149)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA149,$AA149)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC149" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA149,$AA149)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA149,$AA149)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD149" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA149,$AA149)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA149,$AA149)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE149" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA149,$AA149)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA149,$AA149)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF149" s="1"/>
     </row>
     <row r="150" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA150" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA149,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA149,"1b","P","LON")</f>
         <v>-4</v>
       </c>
       <c r="AB150" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA150,$AA150)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA150,$AA150)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC150" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA150,$AA150)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA150,$AA150)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD150" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA150,$AA150)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA150,$AA150)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE150" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA150,$AA150)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA150,$AA150)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF150" s="1"/>
     </row>
     <row r="151" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA151" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA150,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA150,"1b","P","LON")</f>
         <v>-5</v>
       </c>
       <c r="AB151" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA151,$AA151)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA151,$AA151)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC151" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA151,$AA151)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA151,$AA151)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD151" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA151,$AA151)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA151,$AA151)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE151" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA151,$AA151)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA151,$AA151)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF151" s="1"/>
     </row>
     <row r="152" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA152" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA151,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA151,"1b","P","LON")</f>
         <v>-8</v>
       </c>
       <c r="AB152" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA152,$AA152)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA152,$AA152)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC152" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA152,$AA152)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA152,$AA152)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD152" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA152,$AA152)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA152,$AA152)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE152" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA152,$AA152)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA152,$AA152)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF152" s="1"/>
     </row>
     <row r="153" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA153" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA152,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA152,"1b","P","LON")</f>
         <v>-9</v>
       </c>
       <c r="AB153" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA153,$AA153)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA153,$AA153)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC153" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA153,$AA153)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA153,$AA153)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD153" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA153,$AA153)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA153,$AA153)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE153" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA153,$AA153)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA153,$AA153)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF153" s="1"/>
     </row>
     <row r="154" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA154" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA153,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA153,"1b","P","LON")</f>
         <v>-10</v>
       </c>
       <c r="AB154" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA154,$AA154)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA154,$AA154)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC154" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA154,$AA154)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA154,$AA154)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD154" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA154,$AA154)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA154,$AA154)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE154" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA154,$AA154)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA154,$AA154)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF154" s="1"/>
     </row>
     <row r="155" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA155" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA154,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA154,"1b","P","LON")</f>
         <v>-11</v>
       </c>
       <c r="AB155" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA155,$AA155)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA155,$AA155)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC155" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA155,$AA155)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA155,$AA155)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD155" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA155,$AA155)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA155,$AA155)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE155" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA155,$AA155)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA155,$AA155)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF155" s="1"/>
     </row>
     <row r="156" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA156" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA155,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA155,"1b","P","LON")</f>
         <v>-12</v>
       </c>
       <c r="AB156" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA156,$AA156)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA156,$AA156)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC156" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA156,$AA156)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA156,$AA156)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD156" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA156,$AA156)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA156,$AA156)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE156" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA156,$AA156)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA156,$AA156)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF156" s="1"/>
     </row>
     <row r="157" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA157" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA156,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA156,"1b","P","LON")</f>
         <v>-15</v>
       </c>
       <c r="AB157" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA157,$AA157)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA157,$AA157)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC157" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA157,$AA157)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA157,$AA157)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD157" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA157,$AA157)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA157,$AA157)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE157" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA157,$AA157)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA157,$AA157)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF157" s="1"/>
     </row>
     <row r="158" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA158" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA157,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA157,"1b","P","LON")</f>
         <v>-16</v>
       </c>
       <c r="AB158" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA158,$AA158)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA158,$AA158)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC158" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA158,$AA158)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA158,$AA158)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD158" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA158,$AA158)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA158,$AA158)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE158" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA158,$AA158)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA158,$AA158)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF158" s="1"/>
     </row>
     <row r="159" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA159" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA158,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA158,"1b","P","LON")</f>
         <v>-17</v>
       </c>
       <c r="AB159" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA159,$AA159)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA159,$AA159)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC159" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA159,$AA159)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA159,$AA159)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD159" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA159,$AA159)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA159,$AA159)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE159" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA159,$AA159)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA159,$AA159)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF159" s="1"/>
     </row>
     <row r="160" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA160" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA159,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA159,"1b","P","LON")</f>
         <v>-18</v>
       </c>
       <c r="AB160" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA160,$AA160)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA160,$AA160)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC160" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA160,$AA160)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA160,$AA160)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD160" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA160,$AA160)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA160,$AA160)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE160" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA160,$AA160)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA160,$AA160)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF160" s="1"/>
     </row>
     <row r="161" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA161" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA160,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA160,"1b","P","LON")</f>
         <v>-19</v>
       </c>
       <c r="AB161" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA161,$AA161)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA161,$AA161)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC161" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA161,$AA161)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA161,$AA161)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD161" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA161,$AA161)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA161,$AA161)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE161" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA161,$AA161)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA161,$AA161)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF161" s="1"/>
     </row>
     <row r="162" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA162" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA161,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA161,"1b","P","LON")</f>
         <v>-22</v>
       </c>
       <c r="AB162" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA162,$AA162)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA162,$AA162)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC162" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA162,$AA162)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA162,$AA162)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD162" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA162,$AA162)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA162,$AA162)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE162" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA162,$AA162)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA162,$AA162)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF162" s="1"/>
     </row>
     <row r="163" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA163" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA162,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA162,"1b","P","LON")</f>
         <v>-23</v>
       </c>
       <c r="AB163" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA163,$AA163)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA163,$AA163)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC163" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA163,$AA163)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA163,$AA163)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD163" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA163,$AA163)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA163,$AA163)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE163" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA163,$AA163)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA163,$AA163)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF163" s="1"/>
     </row>
     <row r="164" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA164" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA163,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA163,"1b","P","LON")</f>
         <v>-24</v>
       </c>
       <c r="AB164" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA164,$AA164)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA164,$AA164)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC164" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA164,$AA164)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA164,$AA164)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD164" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA164,$AA164)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA164,$AA164)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE164" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA164,$AA164)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA164,$AA164)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF164" s="1"/>
     </row>
     <row r="165" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA165" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA164,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA164,"1b","P","LON")</f>
         <v>-25</v>
       </c>
       <c r="AB165" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA165,$AA165)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA165,$AA165)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC165" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA165,$AA165)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA165,$AA165)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD165" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA165,$AA165)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA165,$AA165)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE165" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA165,$AA165)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA165,$AA165)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF165" s="1"/>
     </row>
     <row r="166" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA166" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA165,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA165,"1b","P","LON")</f>
         <v>-26</v>
       </c>
       <c r="AB166" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA166,$AA166)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA166,$AA166)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC166" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA166,$AA166)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA166,$AA166)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD166" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA166,$AA166)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA166,$AA166)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE166" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA166,$AA166)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA166,$AA166)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF166" s="1"/>
     </row>
     <row r="167" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA167" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA166,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA166,"1b","P","LON")</f>
         <v>-29</v>
       </c>
       <c r="AB167" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA167,$AA167)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA167,$AA167)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC167" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA167,$AA167)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA167,$AA167)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD167" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA167,$AA167)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA167,$AA167)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE167" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA167,$AA167)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA167,$AA167)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF167" s="1"/>
     </row>
     <row r="168" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA168" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA167,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA167,"1b","P","LON")</f>
         <v>-30</v>
       </c>
       <c r="AB168" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA168,$AA168)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA168,$AA168)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC168" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA168,$AA168)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA168,$AA168)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD168" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA168,$AA168)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA168,$AA168)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE168" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA168,$AA168)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA168,$AA168)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF168" s="1"/>
     </row>
     <row r="169" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA169" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA168,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA168,"1b","P","LON")</f>
         <v>-31</v>
       </c>
       <c r="AB169" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA169,$AA169)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA169,$AA169)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC169" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA169,$AA169)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA169,$AA169)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD169" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA169,$AA169)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA169,$AA169)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE169" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA169,$AA169)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA169,$AA169)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF169" s="1"/>
     </row>
     <row r="170" spans="27:32" x14ac:dyDescent="0.25">
       <c r="AA170" s="1">
-        <f>_xll.QDates_SubtractPeriod(AA169,"1b","P","LON")</f>
+        <f ca="1">_xll.QDates_SubtractPeriod(AA169,"1b","P","LON")</f>
         <v>-32</v>
       </c>
       <c r="AB170" t="str">
-        <f>_xll.BDH("CO1 Comdty","PX_SETTLE",$AA170,$AA170)</f>
+        <f ca="1">_xll.BDH("CO1 Comdty","PX_SETTLE",$AA170,$AA170)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AC170" t="str">
-        <f>_xll.BDH("QS1 Comdty","PX_SETTLE",$AA170,$AA170)</f>
+        <f ca="1">_xll.BDH("QS1 Comdty","PX_SETTLE",$AA170,$AA170)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AD170" t="str">
-        <f>_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA170,$AA170)</f>
+        <f ca="1">_xll.BDH("FSS1M1 Comdty","PX_LAST",$AA170,$AA170)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AE170" t="str">
-        <f>_xll.BDH("XO1 Comdty","PX_LAST",$AA170,$AA170)</f>
+        <f ca="1">_xll.BDH("XO1 Comdty","PX_LAST",$AA170,$AA170)</f>
         <v>#N/A Datetime</v>
       </c>
       <c r="AF170" s="1"/>
@@ -18342,8 +18497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F877D130-0D9E-41A9-B826-31B54060F392}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18354,8 +18509,8 @@
     <col min="5" max="5" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="30" customWidth="1"/>
     <col min="7" max="7" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="30"/>
+    <col min="8" max="8" width="13.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="30" customWidth="1"/>
     <col min="11" max="11" width="0.140625" style="30" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
@@ -18373,67 +18528,67 @@
   <sheetData>
     <row r="1" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>65</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>35</v>
@@ -18450,75 +18605,75 @@
         <v>43405</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="str">
+        <f t="shared" ref="F2" ca="1" si="0">"LON"&amp;IF(B2&lt;&gt;"USD","+"&amp;B2,"")</f>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="30" t="str">
-        <f t="shared" ref="F2" si="0">"LON"&amp;IF(B2&lt;&gt;"USD","+"&amp;B2,"")</f>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="str">
+        <f t="shared" ref="H2" ca="1" si="1">"LON+NYC"&amp;IF(B2&lt;&gt;"USD","+"&amp;B2,"")</f>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="30" t="str">
-        <f t="shared" ref="H2" si="1">"LON+NYC"&amp;IF(B2&lt;&gt;"USD","+"&amp;B2,"")</f>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J2" s="30" t="str">
-        <f t="shared" ref="J2" si="2">IF(B2="ZAR","ZAR.DISC.[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
+        <f t="shared" ref="J2" ca="1" si="2">IF(B2="ZAR","ZAR.DISC.[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K2" s="30" t="str">
-        <f>IF(D2="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C2,A2,B2,0,1,F2,H2,I2,"2b",,J2),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C2,A2,B2,0,1,F2,H2,I2,"2b",,J2))</f>
-        <v>Tswp0_2¬12</v>
+        <f ca="1">IF(D2="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C2,A2,B2,0,1,F2,H2,I2,"2b",,J2),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C2,A2,B2,0,1,F2,H2,I2,"2b",,J2))</f>
+        <v>Tswp0_2¬13</v>
       </c>
       <c r="L2" s="35">
-        <f>_xll.QIns_ProductParRate(K2,EnergyCurves!$AB$7)</f>
-        <v>10647.929255200299</v>
+        <f ca="1">_xll.QIns_ProductParRate(K2,EnergyCurves!$AB$7)</f>
+        <v>10646.28500250567</v>
       </c>
       <c r="M2" s="13">
-        <f t="shared" ref="M2:M7" si="3">L2</f>
-        <v>10647.929255200299</v>
+        <f t="shared" ref="M2:M7" ca="1" si="3">L2</f>
+        <v>10646.28500250567</v>
       </c>
       <c r="N2" s="3">
-        <f>833333/159.6/7.45</f>
+        <f ca="1">833333/159.6/7.45</f>
         <v>700.85700829254336</v>
       </c>
       <c r="O2" s="30" t="str">
-        <f>IF(D2="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C2,A2,B2,M2,N2,F2,H2,I2,"2b",,J2),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C2,A2,B2,M2,N2,F2,H2,I2,"2b",,J2))</f>
+        <f ca="1">IF(D2="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C2,A2,B2,M2,N2,F2,H2,I2,"2b",,J2),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C2,A2,B2,M2,N2,F2,H2,I2,"2b",,J2))</f>
         <v>Tswp_2¬6</v>
       </c>
       <c r="P2" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q2" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O2,EnergyCurves!$AB$7)</f>
-        <v>delta_2¬6</v>
-      </c>
-      <c r="R2" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q2,"AssetId","Sum")</f>
-        <v>deltaAgg_2¬6</v>
-      </c>
-      <c r="S2" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R2,0)</f>
-        <v>696.08044167263165</v>
-      </c>
-      <c r="T2" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O2,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_2¬6</v>
-      </c>
-      <c r="U2" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T2,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_2¬6</v>
-      </c>
-      <c r="V2" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U2,0)</f>
-        <v>512909.00869224058</v>
+      <c r="Q2" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O2,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R2" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q2,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O2,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U2" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T2,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V2" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U2,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -18532,75 +18687,75 @@
         <v>43435</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="str">
+        <f t="shared" ref="F3:F7" ca="1" si="4">"LON"&amp;IF(B3&lt;&gt;"USD","+"&amp;B3,"")</f>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="30" t="str">
-        <f t="shared" ref="F3:F7" si="4">"LON"&amp;IF(B3&lt;&gt;"USD","+"&amp;B3,"")</f>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="str">
+        <f t="shared" ref="H3:H7" ca="1" si="5">"LON+NYC"&amp;IF(B3&lt;&gt;"USD","+"&amp;B3,"")</f>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="30" t="str">
-        <f t="shared" ref="H3:H7" si="5">"LON+NYC"&amp;IF(B3&lt;&gt;"USD","+"&amp;B3,"")</f>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J3" s="30" t="str">
-        <f t="shared" ref="J3:J7" si="6">IF(B3="ZAR","ZAR.DISC.[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
+        <f t="shared" ref="J3:J7" ca="1" si="6">IF(B3="ZAR","ZAR.DISC.[USD.LIBOR.3M]","[USD.LIBOR.3M]")</f>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K3" s="30" t="str">
-        <f>IF(D3="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C3,A3,B3,0,1,F3,H3,I3,"2b",,J3),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C3,A3,B3,0,1,F3,H3,I3,"2b",,J3))</f>
-        <v>Tswp0_3¬12</v>
+        <f ca="1">IF(D3="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C3,A3,B3,0,1,F3,H3,I3,"2b",,J3),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C3,A3,B3,0,1,F3,H3,I3,"2b",,J3))</f>
+        <v>Tswp0_3¬13</v>
       </c>
       <c r="L3" s="35">
-        <f>_xll.QIns_ProductParRate(K3,EnergyCurves!$AB$7)</f>
-        <v>10666.957849088791</v>
+        <f ca="1">_xll.QIns_ProductParRate(K3,EnergyCurves!$AB$7)</f>
+        <v>10665.94963095291</v>
       </c>
       <c r="M3" s="13">
-        <f t="shared" si="3"/>
-        <v>10666.957849088791</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10665.94963095291</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N7" si="7">833333/159.6/7.45</f>
+        <f t="shared" ref="N3:N7" ca="1" si="7">833333/159.6/7.45</f>
         <v>700.85700829254336</v>
       </c>
       <c r="O3" s="30" t="str">
-        <f>IF(D3="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C3,A3,B3,M3,N3,F3,H3,I3,"2b",,J3),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C3,A3,B3,M3,N3,F3,H3,I3,"2b",,J3))</f>
+        <f ca="1">IF(D3="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C3,A3,B3,M3,N3,F3,H3,I3,"2b",,J3),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C3,A3,B3,M3,N3,F3,H3,I3,"2b",,J3))</f>
         <v>Tswp_3¬6</v>
       </c>
       <c r="P3" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q3" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O3,EnergyCurves!$AB$7)</f>
-        <v>delta_3¬6</v>
-      </c>
-      <c r="R3" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q3,"AssetId","Sum")</f>
-        <v>deltaAgg_3¬6</v>
-      </c>
-      <c r="S3" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R3,0)</f>
-        <v>694.21944039577238</v>
-      </c>
-      <c r="T3" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O3,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_3¬6</v>
-      </c>
-      <c r="U3" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T3,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_3¬6</v>
-      </c>
-      <c r="V3" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U3,0)</f>
-        <v>510486.1673311966</v>
+      <c r="Q3" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O3,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R3" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q3,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T3" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O3,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U3" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T3,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V3" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U3,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -18611,79 +18766,78 @@
         <v>18</v>
       </c>
       <c r="C4" s="34">
-        <f t="shared" ref="C4:C7" si="8">EDATE(C3,1)</f>
         <v>43466</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="H4" s="30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J4" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K4" s="30" t="str">
-        <f>IF(D4="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C4,A4,B4,0,1,F4,H4,I4,"2b",,J4),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C4,A4,B4,0,1,F4,H4,I4,"2b",,J4))</f>
-        <v>Tswp0_4¬12</v>
+        <f ca="1">IF(D4="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C4,A4,B4,0,1,F4,H4,I4,"2b",,J4),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C4,A4,B4,0,1,F4,H4,I4,"2b",,J4))</f>
+        <v>Tswp0_4¬13</v>
       </c>
       <c r="L4" s="35">
-        <f>_xll.QIns_ProductParRate(K4,EnergyCurves!$AB$7)</f>
-        <v>10696.194350316402</v>
+        <f ca="1">_xll.QIns_ProductParRate(K4,EnergyCurves!$AB$7)</f>
+        <v>10695.678657771066</v>
       </c>
       <c r="M4" s="13">
-        <f t="shared" si="3"/>
-        <v>10696.194350316402</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10695.678657771066</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>700.85700829254336</v>
       </c>
       <c r="O4" s="30" t="str">
-        <f>IF(D4="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C4,A4,B4,M4,N4,F4,H4,I4,"2b",,J4),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C4,A4,B4,M4,N4,F4,H4,I4,"2b",,J4))</f>
+        <f ca="1">IF(D4="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C4,A4,B4,M4,N4,F4,H4,I4,"2b",,J4),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C4,A4,B4,M4,N4,F4,H4,I4,"2b",,J4))</f>
         <v>Tswp_4¬6</v>
       </c>
       <c r="P4" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q4" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O4,EnergyCurves!$AB$7)</f>
-        <v>delta_4¬6</v>
-      </c>
-      <c r="R4" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q4,"AssetId","Sum")</f>
-        <v>deltaAgg_4¬6</v>
-      </c>
-      <c r="S4" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R4,0)</f>
-        <v>692.92557748321906</v>
-      </c>
-      <c r="T4" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O4,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_4¬6</v>
-      </c>
-      <c r="U4" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T4,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_4¬6</v>
-      </c>
-      <c r="V4" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U4,0)</f>
-        <v>508777.71849973185</v>
+      <c r="Q4" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O4,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R4" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q4,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S4" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T4" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O4,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U4" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T4,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U4,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -18694,79 +18848,78 @@
         <v>18</v>
       </c>
       <c r="C5" s="34">
-        <f t="shared" si="8"/>
         <v>43497</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J5" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K5" s="30" t="str">
-        <f>IF(D5="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C5,A5,B5,0,1,F5,H5,I5,"2b",,J5),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C5,A5,B5,0,1,F5,H5,I5,"2b",,J5))</f>
-        <v>Tswp0_5¬4</v>
+        <f ca="1">IF(D5="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C5,A5,B5,0,1,F5,H5,I5,"2b",,J5),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C5,A5,B5,0,1,F5,H5,I5,"2b",,J5))</f>
+        <v>Tswp0_5¬13</v>
       </c>
       <c r="L5" s="35">
-        <f>_xll.QIns_ProductParRate(K5,EnergyCurves!$AB$7)</f>
-        <v>10717.5271544479</v>
+        <f ca="1">_xll.QIns_ProductParRate(K5,EnergyCurves!$AB$7)</f>
+        <v>10716.568844512576</v>
       </c>
       <c r="M5" s="13">
-        <f t="shared" si="3"/>
-        <v>10717.5271544479</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10716.568844512576</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>700.85700829254336</v>
       </c>
       <c r="O5" s="30" t="str">
-        <f>IF(D5="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C5,A5,B5,M5,N5,F5,H5,I5,"2b",,J5),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C5,A5,B5,M5,N5,F5,H5,I5,"2b",,J5))</f>
-        <v>Tswp_5¬4</v>
+        <f ca="1">IF(D5="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C5,A5,B5,M5,N5,F5,H5,I5,"2b",,J5),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C5,A5,B5,M5,N5,F5,H5,I5,"2b",,J5))</f>
+        <v>Tswp_5¬6</v>
       </c>
       <c r="P5" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q5" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O5,EnergyCurves!$AB$7)</f>
-        <v>delta_5¬4</v>
-      </c>
-      <c r="R5" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q5,"AssetId","Sum")</f>
-        <v>deltaAgg_5¬4</v>
-      </c>
-      <c r="S5" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R5,0)</f>
-        <v>691.61772392688374</v>
-      </c>
-      <c r="T5" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O5,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_5¬4</v>
-      </c>
-      <c r="U5" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T5,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_5¬4</v>
-      </c>
-      <c r="V5" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U5,0)</f>
-        <v>506893.43517623562</v>
+      <c r="Q5" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O5,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R5" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q5,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O5,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U5" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T5,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U5,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -18777,79 +18930,78 @@
         <v>18</v>
       </c>
       <c r="C6" s="34">
-        <f t="shared" si="8"/>
         <v>43525</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J6" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f>IF(D6="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C6,A6,B6,0,1,F6,H6,I6,"2b",,J6),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C6,A6,B6,0,1,F6,H6,I6,"2b",,J6))</f>
-        <v>Tswp0_6¬12</v>
+        <f ca="1">IF(D6="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C6,A6,B6,0,1,F6,H6,I6,"2b",,J6),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C6,A6,B6,0,1,F6,H6,I6,"2b",,J6))</f>
+        <v>Tswp0_6¬13</v>
       </c>
       <c r="L6" s="35">
-        <f>_xll.QIns_ProductParRate(K6,EnergyCurves!$AB$7)</f>
-        <v>10726.665280356692</v>
+        <f ca="1">_xll.QIns_ProductParRate(K6,EnergyCurves!$AB$7)</f>
+        <v>10725.339402208316</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" si="3"/>
-        <v>10726.665280356692</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10725.339402208316</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>700.85700829254336</v>
       </c>
       <c r="O6" s="30" t="str">
-        <f>IF(D6="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C6,A6,B6,M6,N6,F6,H6,I6,"2b",,J6),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C6,A6,B6,M6,N6,F6,H6,I6,"2b",,J6))</f>
-        <v>Tswp_6¬7</v>
+        <f ca="1">IF(D6="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C6,A6,B6,M6,N6,F6,H6,I6,"2b",,J6),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C6,A6,B6,M6,N6,F6,H6,I6,"2b",,J6))</f>
+        <v>Tswp_6¬6</v>
       </c>
       <c r="P6" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q6" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O6,EnergyCurves!$AB$7)</f>
-        <v>delta_6¬7</v>
-      </c>
-      <c r="R6" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q6,"AssetId","Sum")</f>
-        <v>deltaAgg_6¬7</v>
-      </c>
-      <c r="S6" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R6,0)</f>
-        <v>690.05821666917825</v>
-      </c>
-      <c r="T6" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O6,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_6¬7</v>
-      </c>
-      <c r="U6" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T6,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_6¬7</v>
-      </c>
-      <c r="V6" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U6,0)</f>
-        <v>504327.60534007795</v>
+      <c r="Q6" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O6,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R6" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q6,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R6,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O6,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U6" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T6,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U6,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -18860,79 +19012,78 @@
         <v>18</v>
       </c>
       <c r="C7" s="34">
-        <f t="shared" si="8"/>
         <v>43556</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>LON+ZAR</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>LON+ZAR</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>LON+NYC+ZAR</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>LON+NYC+ZAR</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="J7" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>ZAR.DISC.[USD.LIBOR.3M]</v>
       </c>
       <c r="K7" s="30" t="str">
-        <f>IF(D7="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C7,A7,B7,0,1,F7,H7,I7,"2b",,J7),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C7,A7,B7,0,1,F7,H7,I7,"2b",,J7))</f>
-        <v>Tswp0_7¬12</v>
+        <f ca="1">IF(D7="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp0_"&amp;ROW(),C7,A7,B7,0,1,F7,H7,I7,"2b",,J7),_xll.QIns_CreateAsianSwap("Tswp0_"&amp;ROW(),C7,A7,B7,0,1,F7,H7,I7,"2b",,J7))</f>
+        <v>Tswp0_7¬13</v>
       </c>
       <c r="L7" s="35">
-        <f>_xll.QIns_ProductParRate(K7,EnergyCurves!$AB$7)</f>
-        <v>10739.962923060968</v>
+        <f ca="1">_xll.QIns_ProductParRate(K7,EnergyCurves!$AB$7)</f>
+        <v>10738.741189417377</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="3"/>
-        <v>10739.962923060968</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10738.741189417377</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>700.85700829254336</v>
       </c>
       <c r="O7" s="30" t="str">
-        <f>IF(D7="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C7,A7,B7,M7,N7,F7,H7,I7,"2b",,J7),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C7,A7,B7,M7,N7,F7,H7,I7,"2b",,J7))</f>
-        <v>Tswp_7¬7</v>
+        <f ca="1">IF(D7="Monthly",_xll.QIns_CreateMonthlyAsianSwap("Mswp_"&amp;ROW(),C7,A7,B7,M7,N7,F7,H7,I7,"2b",,J7),_xll.QIns_CreateAsianSwap("Tswp_"&amp;ROW(),C7,A7,B7,M7,N7,F7,H7,I7,"2b",,J7))</f>
+        <v>Tswp_7¬6</v>
       </c>
       <c r="P7" s="35">
         <v>1.7337054686762035E-11</v>
       </c>
-      <c r="Q7" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O7,EnergyCurves!$AB$7)</f>
-        <v>delta_7¬7</v>
-      </c>
-      <c r="R7" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q7,"AssetId","Sum")</f>
-        <v>deltaAgg_7¬7</v>
-      </c>
-      <c r="S7" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(R7,0)</f>
-        <v>688.01672488309987</v>
-      </c>
-      <c r="T7" s="30" t="str">
-        <f>_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O7,EnergyCurves!$AB$7)</f>
-        <v>fxdelta_7¬7</v>
-      </c>
-      <c r="U7" s="30" t="str">
-        <f>_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T7,"AssetId","Sum")</f>
-        <v>fxdeltaAgg_7¬7</v>
-      </c>
-      <c r="V7" s="36">
-        <f>_xll.QCube_DisplayCubeValueForRow(U7,0)</f>
-        <v>501533.01385000476</v>
+      <c r="Q7" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioDelta("delta_"&amp;ROW(),O7,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("deltaAgg_"&amp;ROW(),Q7,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(R7,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="30" t="e">
+        <f ca="1">_xll.QIns_AssetPortfolioFxDelta("fxdelta_"&amp;ROW(),O7,EnergyCurves!$AB$7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U7" s="30" t="e">
+        <f ca="1">_xll.QCube_AggregateCube("fxdeltaAgg_"&amp;ROW(),T7,"AssetId","Sum")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" s="36" t="e">
+        <f ca="1">_xll.QCube_DisplayCubeValueForRow(U7,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -18940,7 +19091,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="13"/>
       <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -18949,211 +19100,192 @@
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">_xll.QModels_CreateCreditSettings("TestCreditSettings",C2:C7,"MultiLinear","PFE",,,,0.5,0.95)</f>
+        <v>TestCreditSettings¬3</v>
+      </c>
       <c r="J11" s="34"/>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="30" t="str">
-        <f ca="1">_xll.QModels_CreateMcSettings("mcs",2^15,100,"MersenneTwister",E15:E23)</f>
-        <v>mcs¬14</v>
+        <f ca="1">_xll.QModels_CreateMcSettings("TestMcSettings",2^15,100,"MersenneTwister","ZAR","Black",,TRUE,,,,,,,G11)</f>
+        <v>TestMcSettings¬3</v>
       </c>
       <c r="J12" s="34"/>
       <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G13" s="30" t="str">
-        <f>_xll.QIns_CreatePortfolio("pfeTrades",O2:O7)</f>
-        <v>pfeTrades¬9</v>
-      </c>
+        <f ca="1">_xll.QIns_CreatePortfolio("pfeTrades",O2:O7)</f>
+        <v>pfeTrades¬13</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="34"/>
       <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I14" s="12"/>
       <c r="J14" s="34"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <f ca="1">TODAY()+1</f>
-        <v>43376</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="G15" s="30" t="str">
         <f ca="1">_xll.QModels_McPortfolioPFE("pfe1",G13,EnergyCurves!AB7,G12,0.95)</f>
-        <v>pfe1¬9</v>
-      </c>
+        <v>pfe1¬0</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:E23" ca="1" si="9">EDATE(E15,1)</f>
-        <v>43407</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>43437</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="G17" s="30" t="str">
         <f t="array" aca="1" ref="G17:I26" ca="1">_xll.QCube_DisplayCube(G15)</f>
         <v>ExposureDate</v>
       </c>
       <c r="H17" s="30" t="str">
         <f ca="1"/>
+        <v>Metric</v>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f ca="1"/>
         <v>Value</v>
       </c>
-      <c r="I17" s="30" t="e">
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="G18" s="1">
+        <f ca="1"/>
+        <v>43405</v>
+      </c>
+      <c r="H18" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I18" s="12">
+        <f ca="1"/>
+        <v>5048624.7748580705</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="G19" s="1">
+        <f ca="1"/>
+        <v>43435</v>
+      </c>
+      <c r="H19" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I19" s="12">
+        <f ca="1"/>
+        <v>6917233.4286004417</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="G20" s="1">
+        <f ca="1"/>
+        <v>43466</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I20" s="12">
+        <f ca="1"/>
+        <v>7272377.879238476</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1">
+        <f ca="1"/>
+        <v>43497</v>
+      </c>
+      <c r="H21" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I21" s="12">
+        <f ca="1"/>
+        <v>6886736.9111471083</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="G22" s="1">
+        <f ca="1"/>
+        <v>43525</v>
+      </c>
+      <c r="H22" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I22" s="12">
+        <f ca="1"/>
+        <v>5736374.5943831345</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="G23" s="1">
+        <f ca="1"/>
+        <v>43556</v>
+      </c>
+      <c r="H23" s="12" t="str">
+        <f ca="1"/>
+        <v>PFE</v>
+      </c>
+      <c r="I23" s="12">
+        <f ca="1"/>
+        <v>4198154.5039123707</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="G24" s="1" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>43468</v>
-      </c>
-      <c r="G18" s="1">
-        <f ca="1"/>
-        <v>43376</v>
-      </c>
-      <c r="H18" s="12">
-        <f ca="1"/>
-        <v>1233490.0212027282</v>
-      </c>
-      <c r="I18" s="30" t="e">
+      <c r="H24" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>43499</v>
-      </c>
-      <c r="G19" s="1">
-        <f ca="1"/>
-        <v>43407</v>
-      </c>
-      <c r="H19" s="12">
-        <f ca="1"/>
-        <v>6403774.6643332094</v>
-      </c>
-      <c r="I19" s="30" t="e">
+      <c r="I24" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>43527</v>
-      </c>
-      <c r="G20" s="1">
-        <f ca="1"/>
-        <v>43437</v>
-      </c>
-      <c r="H20" s="12">
-        <f ca="1"/>
-        <v>8527655.1134155095</v>
-      </c>
-      <c r="I20" s="30" t="e">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="G25" s="1" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>43558</v>
-      </c>
-      <c r="G21" s="1">
-        <f ca="1"/>
-        <v>43468</v>
-      </c>
-      <c r="H21" s="12">
-        <f ca="1"/>
-        <v>8716758.0492831022</v>
-      </c>
-      <c r="I21" s="30" t="e">
+      <c r="H25" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
-        <f ca="1">EDATE(E21,1)</f>
-        <v>43588</v>
-      </c>
-      <c r="G22" s="1">
-        <f ca="1"/>
-        <v>43499</v>
-      </c>
-      <c r="H22" s="12">
-        <f ca="1"/>
-        <v>8205750.1807715222</v>
-      </c>
-      <c r="I22" s="30" t="e">
+      <c r="I25" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="1">
-        <f ca="1">EDATE(E22,1)</f>
-        <v>43619</v>
-      </c>
-      <c r="G23" s="1">
-        <f ca="1"/>
-        <v>43527</v>
-      </c>
-      <c r="H23" s="12">
-        <f ca="1"/>
-        <v>6919119.0685860366</v>
-      </c>
-      <c r="I23" s="30" t="e">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="G24" s="1">
-        <f ca="1"/>
-        <v>43558</v>
-      </c>
-      <c r="H24" s="12">
-        <f ca="1"/>
-        <v>5047531.1547840834</v>
-      </c>
-      <c r="I24" s="30" t="e">
+      <c r="H26" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="G25" s="1">
-        <f ca="1"/>
-        <v>43588</v>
-      </c>
-      <c r="H25" s="12">
-        <f ca="1"/>
-        <v>2617164.7045899536</v>
-      </c>
-      <c r="I25" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="1">
-        <f ca="1"/>
-        <v>43619</v>
-      </c>
-      <c r="H26" s="12">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="30" t="e">
+      <c r="I26" s="12" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -19176,16 +19308,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361C980-D3DA-4152-B7FD-EB4BF27C598D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>